--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>629.5571147510607</v>
+        <v>743.9458488008576</v>
       </c>
       <c r="AB2" t="n">
-        <v>861.3878185021073</v>
+        <v>1017.899530903823</v>
       </c>
       <c r="AC2" t="n">
-        <v>779.1781740696616</v>
+        <v>920.752628305326</v>
       </c>
       <c r="AD2" t="n">
-        <v>629557.1147510607</v>
+        <v>743945.8488008576</v>
       </c>
       <c r="AE2" t="n">
-        <v>861387.8185021073</v>
+        <v>1017899.530903823</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.538273992928657e-07</v>
+        <v>1.612492543796631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.24131944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>779178.1740696616</v>
+        <v>920752.628305326</v>
       </c>
     </row>
     <row r="3">
@@ -5183,28 +5183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>452.8919562448647</v>
+        <v>546.5369732315205</v>
       </c>
       <c r="AB3" t="n">
-        <v>619.6667547172038</v>
+        <v>747.7959982849213</v>
       </c>
       <c r="AC3" t="n">
-        <v>560.5266293547456</v>
+        <v>676.4273977468831</v>
       </c>
       <c r="AD3" t="n">
-        <v>452891.9562448647</v>
+        <v>546536.9732315205</v>
       </c>
       <c r="AE3" t="n">
-        <v>619666.7547172038</v>
+        <v>747795.9982849213</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.215182268857329e-06</v>
+        <v>2.054325918231118e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.67534722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>560526.6293547456</v>
+        <v>676427.3977468831</v>
       </c>
     </row>
     <row r="4">
@@ -5289,28 +5289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>410.3257186538761</v>
+        <v>493.4710000899305</v>
       </c>
       <c r="AB4" t="n">
-        <v>561.4257505553455</v>
+        <v>675.1887927270899</v>
       </c>
       <c r="AC4" t="n">
-        <v>507.8440648883324</v>
+        <v>610.7497219826379</v>
       </c>
       <c r="AD4" t="n">
-        <v>410325.7186538761</v>
+        <v>493471.0000899305</v>
       </c>
       <c r="AE4" t="n">
-        <v>561425.7505553456</v>
+        <v>675188.7927270898</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.316484415317074e-06</v>
+        <v>2.225582223048987e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>507844.0648883324</v>
+        <v>610749.7219826379</v>
       </c>
     </row>
     <row r="5">
@@ -5395,28 +5395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>384.2379849316383</v>
+        <v>467.4685177137133</v>
       </c>
       <c r="AB5" t="n">
-        <v>525.7313623669951</v>
+        <v>639.6110491913887</v>
       </c>
       <c r="AC5" t="n">
-        <v>475.5562990112896</v>
+        <v>578.5674683563074</v>
       </c>
       <c r="AD5" t="n">
-        <v>384237.9849316383</v>
+        <v>467468.5177137133</v>
       </c>
       <c r="AE5" t="n">
-        <v>525731.3623669951</v>
+        <v>639611.0491913887</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.371103544975094e-06</v>
+        <v>2.317918571729588e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.77430555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>475556.2990112896</v>
+        <v>578567.4683563074</v>
       </c>
     </row>
     <row r="6">
@@ -5501,28 +5501,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>374.2190967519662</v>
+        <v>447.0352348380113</v>
       </c>
       <c r="AB6" t="n">
-        <v>512.0230775574162</v>
+        <v>611.6533301080342</v>
       </c>
       <c r="AC6" t="n">
-        <v>463.1563136642383</v>
+        <v>553.2779947433631</v>
       </c>
       <c r="AD6" t="n">
-        <v>374219.0967519662</v>
+        <v>447035.2348380113</v>
       </c>
       <c r="AE6" t="n">
-        <v>512023.0775574162</v>
+        <v>611653.3301080342</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.40618583210159e-06</v>
+        <v>2.377226918766744e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.40972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>463156.3136642383</v>
+        <v>553277.9947433631</v>
       </c>
     </row>
     <row r="7">
@@ -5607,28 +5607,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>367.6865408906122</v>
+        <v>440.5026789766575</v>
       </c>
       <c r="AB7" t="n">
-        <v>503.0849464318869</v>
+        <v>602.7151989825051</v>
       </c>
       <c r="AC7" t="n">
-        <v>455.0712252285839</v>
+        <v>545.1929063077085</v>
       </c>
       <c r="AD7" t="n">
-        <v>367686.5408906122</v>
+        <v>440502.6789766575</v>
       </c>
       <c r="AE7" t="n">
-        <v>503084.9464318869</v>
+        <v>602715.198982505</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.426889750053156e-06</v>
+        <v>2.412227919313622e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>455071.2252285839</v>
+        <v>545192.9063077086</v>
       </c>
     </row>
     <row r="8">
@@ -5713,28 +5713,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>361.2440928942574</v>
+        <v>434.0602309803026</v>
       </c>
       <c r="AB8" t="n">
-        <v>494.2701048625279</v>
+        <v>593.9003574131459</v>
       </c>
       <c r="AC8" t="n">
-        <v>447.0976597668966</v>
+        <v>537.2193408460214</v>
       </c>
       <c r="AD8" t="n">
-        <v>361244.0928942574</v>
+        <v>434060.2309803026</v>
       </c>
       <c r="AE8" t="n">
-        <v>494270.1048625279</v>
+        <v>593900.3574131459</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.447406935937514e-06</v>
+        <v>2.44691324003595e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.00173611111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>447097.6597668966</v>
+        <v>537219.3408460214</v>
       </c>
     </row>
     <row r="9">
@@ -5819,28 +5819,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>347.3411112454966</v>
+        <v>430.4863031729999</v>
       </c>
       <c r="AB9" t="n">
-        <v>475.2474320144315</v>
+        <v>589.0103517166274</v>
       </c>
       <c r="AC9" t="n">
-        <v>429.8904841169334</v>
+        <v>532.7960304300124</v>
       </c>
       <c r="AD9" t="n">
-        <v>347341.1112454965</v>
+        <v>430486.3031729999</v>
       </c>
       <c r="AE9" t="n">
-        <v>475247.4320144315</v>
+        <v>589010.3517166274</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.457933956226304e-06</v>
+        <v>2.464709690144905e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.89756944444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>429890.4841169334</v>
+        <v>532796.0304300124</v>
       </c>
     </row>
     <row r="10">
@@ -5925,28 +5925,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>342.8447490320773</v>
+        <v>415.746138464143</v>
       </c>
       <c r="AB10" t="n">
-        <v>469.0953108685303</v>
+        <v>568.8422080717976</v>
       </c>
       <c r="AC10" t="n">
-        <v>424.3255127786408</v>
+        <v>514.5527061084779</v>
       </c>
       <c r="AD10" t="n">
-        <v>342844.7490320773</v>
+        <v>415746.138464143</v>
       </c>
       <c r="AE10" t="n">
-        <v>469095.3108685303</v>
+        <v>568842.2080717976</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.468787757632705e-06</v>
+        <v>2.483058579946819e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.79340277777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>424325.5127786408</v>
+        <v>514552.7061084779</v>
       </c>
     </row>
     <row r="11">
@@ -6031,28 +6031,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>341.0084812250872</v>
+        <v>413.909870657153</v>
       </c>
       <c r="AB11" t="n">
-        <v>466.5828482445884</v>
+        <v>566.3297454478557</v>
       </c>
       <c r="AC11" t="n">
-        <v>422.0528360612645</v>
+        <v>512.2800293911015</v>
       </c>
       <c r="AD11" t="n">
-        <v>341008.4812250872</v>
+        <v>413909.870657153</v>
       </c>
       <c r="AE11" t="n">
-        <v>466582.8482445884</v>
+        <v>566329.7454478557</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.47296588763646e-06</v>
+        <v>2.490121916021104e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.75868055555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>422052.8360612645</v>
+        <v>512280.0293911015</v>
       </c>
     </row>
     <row r="12">
@@ -6137,28 +6137,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>337.2841705167524</v>
+        <v>410.1855599488182</v>
       </c>
       <c r="AB12" t="n">
-        <v>461.4870820284522</v>
+        <v>561.2339792317197</v>
       </c>
       <c r="AC12" t="n">
-        <v>417.4434026208436</v>
+        <v>507.6705959506806</v>
       </c>
       <c r="AD12" t="n">
-        <v>337284.1705167524</v>
+        <v>410185.5599488182</v>
       </c>
       <c r="AE12" t="n">
-        <v>461487.0820284522</v>
+        <v>561233.9792317196</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.480761951442348e-06</v>
+        <v>2.503301548696027e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.68055555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>417443.4026208436</v>
+        <v>507670.5959506806</v>
       </c>
     </row>
     <row r="13">
@@ -6243,28 +6243,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>333.9794404392534</v>
+        <v>406.8808298713191</v>
       </c>
       <c r="AB13" t="n">
-        <v>456.9654045420168</v>
+        <v>556.7123017452841</v>
       </c>
       <c r="AC13" t="n">
-        <v>413.3532676874993</v>
+        <v>503.5804610173363</v>
       </c>
       <c r="AD13" t="n">
-        <v>333979.4404392534</v>
+        <v>406880.8298713191</v>
       </c>
       <c r="AE13" t="n">
-        <v>456965.4045420167</v>
+        <v>556712.3017452841</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.485640326698128e-06</v>
+        <v>2.511548684112372e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.63715277777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>413353.2676874993</v>
+        <v>503580.4610173363</v>
       </c>
     </row>
     <row r="14">
@@ -6349,28 +6349,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>330.2388516760741</v>
+        <v>403.1402411081398</v>
       </c>
       <c r="AB14" t="n">
-        <v>451.8473659731054</v>
+        <v>551.5942631763727</v>
       </c>
       <c r="AC14" t="n">
-        <v>408.7236875363925</v>
+        <v>498.9508808662295</v>
       </c>
       <c r="AD14" t="n">
-        <v>330238.8516760741</v>
+        <v>403140.2411081399</v>
       </c>
       <c r="AE14" t="n">
-        <v>451847.3659731054</v>
+        <v>551594.2631763727</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.491405679273141e-06</v>
+        <v>2.521295298695325e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.58506944444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>408723.6875363925</v>
+        <v>498950.8808662295</v>
       </c>
     </row>
     <row r="15">
@@ -6455,28 +6455,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>327.605051358962</v>
+        <v>400.5064407910277</v>
       </c>
       <c r="AB15" t="n">
-        <v>448.2436841841632</v>
+        <v>547.9905813874307</v>
       </c>
       <c r="AC15" t="n">
-        <v>405.4639360795878</v>
+        <v>495.6911294094249</v>
       </c>
       <c r="AD15" t="n">
-        <v>327605.051358962</v>
+        <v>400506.4407910277</v>
       </c>
       <c r="AE15" t="n">
-        <v>448243.6841841632</v>
+        <v>547990.5813874307</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.497521154474167e-06</v>
+        <v>2.531633812949306e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.53298611111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>405463.9360795878</v>
+        <v>495691.129409425</v>
       </c>
     </row>
     <row r="16">
@@ -6561,28 +6561,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>323.4705925065306</v>
+        <v>396.2013897380042</v>
       </c>
       <c r="AB16" t="n">
-        <v>442.5867351828151</v>
+        <v>542.1002206112356</v>
       </c>
       <c r="AC16" t="n">
-        <v>400.3468783513507</v>
+        <v>490.3629363985366</v>
       </c>
       <c r="AD16" t="n">
-        <v>323470.5925065306</v>
+        <v>396201.3897380042</v>
       </c>
       <c r="AE16" t="n">
-        <v>442586.7351828151</v>
+        <v>542100.2206112356</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.503286507049181e-06</v>
+        <v>2.541380427532259e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.48090277777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>400346.8783513507</v>
+        <v>490362.9363985366</v>
       </c>
     </row>
     <row r="17">
@@ -6667,28 +6667,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>320.7618882540166</v>
+        <v>393.4926854854901</v>
       </c>
       <c r="AB17" t="n">
-        <v>438.8805665249278</v>
+        <v>538.3940519533481</v>
       </c>
       <c r="AC17" t="n">
-        <v>396.9944212285316</v>
+        <v>487.0104792757176</v>
       </c>
       <c r="AD17" t="n">
-        <v>320761.8882540166</v>
+        <v>393492.6854854901</v>
       </c>
       <c r="AE17" t="n">
-        <v>438880.5665249277</v>
+        <v>538394.0519533481</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.502959725931568e-06</v>
+        <v>2.540827987839298e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.48090277777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>396994.4212285316</v>
+        <v>487010.4792757176</v>
       </c>
     </row>
     <row r="18">
@@ -6773,28 +6773,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>320.8961631652865</v>
+        <v>393.62696039676</v>
       </c>
       <c r="AB18" t="n">
-        <v>439.0642873823182</v>
+        <v>538.5777728107386</v>
       </c>
       <c r="AC18" t="n">
-        <v>397.1606080251466</v>
+        <v>487.1766660723326</v>
       </c>
       <c r="AD18" t="n">
-        <v>320896.1631652865</v>
+        <v>393626.96039676</v>
       </c>
       <c r="AE18" t="n">
-        <v>439064.2873823182</v>
+        <v>538577.7728107385</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.501862675036728e-06</v>
+        <v>2.538973368870072e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>397160.6080251466</v>
+        <v>487176.6660723326</v>
       </c>
     </row>
     <row r="19">
@@ -6879,28 +6879,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>318.9182016781643</v>
+        <v>391.6489989096378</v>
       </c>
       <c r="AB19" t="n">
-        <v>436.3579532141354</v>
+        <v>535.8714386425559</v>
       </c>
       <c r="AC19" t="n">
-        <v>394.7125625916113</v>
+        <v>484.7286206387973</v>
       </c>
       <c r="AD19" t="n">
-        <v>318918.2016781643</v>
+        <v>391648.9989096379</v>
       </c>
       <c r="AE19" t="n">
-        <v>436357.9532141354</v>
+        <v>535871.4386425558</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.507814759678948e-06</v>
+        <v>2.549035663277574e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH19" t="n">
-        <v>394712.5625916113</v>
+        <v>484728.6206387973</v>
       </c>
     </row>
     <row r="20">
@@ -6985,28 +6985,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>319.7053317968403</v>
+        <v>392.4361290283138</v>
       </c>
       <c r="AB20" t="n">
-        <v>437.4349393682378</v>
+        <v>536.9484247966583</v>
       </c>
       <c r="AC20" t="n">
-        <v>395.6867626987258</v>
+        <v>485.7028207459118</v>
       </c>
       <c r="AD20" t="n">
-        <v>319705.3317968403</v>
+        <v>392436.1290283138</v>
       </c>
       <c r="AE20" t="n">
-        <v>437434.9393682379</v>
+        <v>536948.4247966583</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.507114514426922e-06</v>
+        <v>2.547851863935514e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.44618055555556</v>
       </c>
       <c r="AH20" t="n">
-        <v>395686.7626987258</v>
+        <v>485702.8207459118</v>
       </c>
     </row>
   </sheetData>
@@ -7282,28 +7282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>510.1587751579709</v>
+        <v>600.9739752612631</v>
       </c>
       <c r="AB2" t="n">
-        <v>698.0217427878594</v>
+        <v>822.2791060530488</v>
       </c>
       <c r="AC2" t="n">
-        <v>631.4035273358543</v>
+        <v>743.8019422473188</v>
       </c>
       <c r="AD2" t="n">
-        <v>510158.7751579709</v>
+        <v>600973.9752612632</v>
       </c>
       <c r="AE2" t="n">
-        <v>698021.7427878594</v>
+        <v>822279.1060530489</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.100257772870195e-06</v>
+        <v>1.905416516969982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.05381944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>631403.5273358542</v>
+        <v>743801.9422473188</v>
       </c>
     </row>
     <row r="3">
@@ -7388,28 +7388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>386.9981457613601</v>
+        <v>467.7226885122411</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.507936183922</v>
+        <v>639.9588168911586</v>
       </c>
       <c r="AC3" t="n">
-        <v>478.9724419235836</v>
+        <v>578.8820455949062</v>
       </c>
       <c r="AD3" t="n">
-        <v>386998.1457613601</v>
+        <v>467722.6885122411</v>
       </c>
       <c r="AE3" t="n">
-        <v>529507.936183922</v>
+        <v>639958.8168911586</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.339428497539451e-06</v>
+        <v>2.319610227205414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.65104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>478972.4419235836</v>
+        <v>578882.0455949062</v>
       </c>
     </row>
     <row r="4">
@@ -7494,28 +7494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>353.8573613096982</v>
+        <v>434.4965632060076</v>
       </c>
       <c r="AB4" t="n">
-        <v>484.163252828936</v>
+        <v>594.4973664139749</v>
       </c>
       <c r="AC4" t="n">
-        <v>437.9553915063348</v>
+        <v>537.7593721457185</v>
       </c>
       <c r="AD4" t="n">
-        <v>353857.3613096982</v>
+        <v>434496.5632060076</v>
       </c>
       <c r="AE4" t="n">
-        <v>484163.252828936</v>
+        <v>594497.3664139749</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.428263338130889e-06</v>
+        <v>2.473453605292859e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.67881944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>437955.3915063348</v>
+        <v>537759.3721457185</v>
       </c>
     </row>
     <row r="5">
@@ -7600,28 +7600,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>342.6971323762867</v>
+        <v>413.245855937287</v>
       </c>
       <c r="AB5" t="n">
-        <v>468.8933352476903</v>
+        <v>565.421211213873</v>
       </c>
       <c r="AC5" t="n">
-        <v>424.1428134275794</v>
+        <v>511.4582043892743</v>
       </c>
       <c r="AD5" t="n">
-        <v>342697.1323762867</v>
+        <v>413245.855937287</v>
       </c>
       <c r="AE5" t="n">
-        <v>468893.3352476903</v>
+        <v>565421.211213873</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.472427220555933e-06</v>
+        <v>2.549936219732092e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.23611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>424142.8134275794</v>
+        <v>511458.2043892743</v>
       </c>
     </row>
     <row r="6">
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>323.4376989249408</v>
+        <v>403.9915599666787</v>
       </c>
       <c r="AB6" t="n">
-        <v>442.5417287333216</v>
+        <v>552.7590751961628</v>
       </c>
       <c r="AC6" t="n">
-        <v>400.3061672542299</v>
+        <v>500.0045248616748</v>
       </c>
       <c r="AD6" t="n">
-        <v>323437.6989249408</v>
+        <v>403991.5599666787</v>
       </c>
       <c r="AE6" t="n">
-        <v>442541.7287333216</v>
+        <v>552759.0751961628</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.506932517431488e-06</v>
+        <v>2.609692182571712e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH6" t="n">
-        <v>400306.1672542299</v>
+        <v>500004.5248616748</v>
       </c>
     </row>
     <row r="7">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>317.3019293756953</v>
+        <v>387.9359042827162</v>
       </c>
       <c r="AB7" t="n">
-        <v>434.1464981449957</v>
+        <v>530.7910187638278</v>
       </c>
       <c r="AC7" t="n">
-        <v>392.7121656904737</v>
+        <v>480.1330689028809</v>
       </c>
       <c r="AD7" t="n">
-        <v>317301.9293756953</v>
+        <v>387935.9042827162</v>
       </c>
       <c r="AE7" t="n">
-        <v>434146.4981449958</v>
+        <v>530791.0187638277</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526008223891731e-06</v>
+        <v>2.642727319480949e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.73263888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>392712.1656904737</v>
+        <v>480133.0689028809</v>
       </c>
     </row>
     <row r="8">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>312.7616527891656</v>
+        <v>383.3956276961866</v>
       </c>
       <c r="AB8" t="n">
-        <v>427.9342914164396</v>
+        <v>524.5788120352717</v>
       </c>
       <c r="AC8" t="n">
-        <v>387.092843253204</v>
+        <v>474.5137464656113</v>
       </c>
       <c r="AD8" t="n">
-        <v>312761.6527891656</v>
+        <v>383395.6276961866</v>
       </c>
       <c r="AE8" t="n">
-        <v>427934.2914164396</v>
+        <v>524578.8120352717</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.536705107387792e-06</v>
+        <v>2.661252086127521e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.63715277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>387092.843253204</v>
+        <v>474513.7464656113</v>
       </c>
     </row>
     <row r="9">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>308.2416877168571</v>
+        <v>378.875662623878</v>
       </c>
       <c r="AB9" t="n">
-        <v>421.7498757977215</v>
+        <v>518.3943964165534</v>
       </c>
       <c r="AC9" t="n">
-        <v>381.4986595812545</v>
+        <v>468.9195627936617</v>
       </c>
       <c r="AD9" t="n">
-        <v>308241.6877168571</v>
+        <v>378875.662623878</v>
       </c>
       <c r="AE9" t="n">
-        <v>421749.8757977215</v>
+        <v>518394.3964165534</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.546967354534125e-06</v>
+        <v>2.67902415345211e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.55034722222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>381498.6595812545</v>
+        <v>468919.5627936617</v>
       </c>
     </row>
     <row r="10">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>304.6845501976821</v>
+        <v>375.1479329041109</v>
       </c>
       <c r="AB10" t="n">
-        <v>416.8828433141545</v>
+        <v>513.2939521581394</v>
       </c>
       <c r="AC10" t="n">
-        <v>377.0961298469962</v>
+        <v>464.3058977767523</v>
       </c>
       <c r="AD10" t="n">
-        <v>304684.5501976821</v>
+        <v>375147.9329041109</v>
       </c>
       <c r="AE10" t="n">
-        <v>416882.8433141545</v>
+        <v>513293.9521581394</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.55710886936109e-06</v>
+        <v>2.696587137631704e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>377096.1298469962</v>
+        <v>464305.8977767523</v>
       </c>
     </row>
     <row r="11">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>300.913081162799</v>
+        <v>371.3764638692278</v>
       </c>
       <c r="AB11" t="n">
-        <v>411.7225529951565</v>
+        <v>508.1336618391415</v>
       </c>
       <c r="AC11" t="n">
-        <v>372.4283303935304</v>
+        <v>459.6380983232866</v>
       </c>
       <c r="AD11" t="n">
-        <v>300913.081162799</v>
+        <v>371376.4638692278</v>
       </c>
       <c r="AE11" t="n">
-        <v>411722.5529951566</v>
+        <v>508133.6618391415</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.562734995443668e-06</v>
+        <v>2.706330412188479e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>372428.3303935304</v>
+        <v>459638.0983232866</v>
       </c>
     </row>
     <row r="12">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>295.7880395575452</v>
+        <v>366.251422263974</v>
       </c>
       <c r="AB12" t="n">
-        <v>404.71024496997</v>
+        <v>501.1213538139551</v>
       </c>
       <c r="AC12" t="n">
-        <v>366.0852672044316</v>
+        <v>453.2950351341878</v>
       </c>
       <c r="AD12" t="n">
-        <v>295788.0395575452</v>
+        <v>366251.422263974</v>
       </c>
       <c r="AE12" t="n">
-        <v>404710.24496997</v>
+        <v>501121.3538139551</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.568650879092731e-06</v>
+        <v>2.716575486293243e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.359375</v>
       </c>
       <c r="AH12" t="n">
-        <v>366085.2672044316</v>
+        <v>453295.0351341878</v>
       </c>
     </row>
     <row r="13">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>295.605958399347</v>
+        <v>366.0693411057757</v>
       </c>
       <c r="AB13" t="n">
-        <v>404.4611134964695</v>
+        <v>500.8722223404545</v>
       </c>
       <c r="AC13" t="n">
-        <v>365.8599124891037</v>
+        <v>453.0696804188599</v>
       </c>
       <c r="AD13" t="n">
-        <v>295605.958399347</v>
+        <v>366069.3411057757</v>
       </c>
       <c r="AE13" t="n">
-        <v>404461.1134964695</v>
+        <v>500872.2223404545</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.572997242590002e-06</v>
+        <v>2.724102479513069e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.32465277777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>365859.9124891037</v>
+        <v>453069.6804188599</v>
       </c>
     </row>
     <row r="14">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>295.4913327531572</v>
+        <v>365.9547154595859</v>
       </c>
       <c r="AB14" t="n">
-        <v>404.304277630426</v>
+        <v>500.715386474411</v>
       </c>
       <c r="AC14" t="n">
-        <v>365.718044817995</v>
+        <v>452.927812747751</v>
       </c>
       <c r="AD14" t="n">
-        <v>295491.3327531572</v>
+        <v>365954.7154595859</v>
       </c>
       <c r="AE14" t="n">
-        <v>404304.277630426</v>
+        <v>500715.386474411</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.572973096126128e-06</v>
+        <v>2.72406066288407e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.32465277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>365718.0448179949</v>
+        <v>452927.812747751</v>
       </c>
     </row>
   </sheetData>
@@ -8851,28 +8851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.1705560767359</v>
+        <v>355.9782048742945</v>
       </c>
       <c r="AB2" t="n">
-        <v>399.7606444794189</v>
+        <v>487.0650845590312</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.6080496378908</v>
+        <v>440.5802764888561</v>
       </c>
       <c r="AD2" t="n">
-        <v>292170.5560767358</v>
+        <v>355978.2048742945</v>
       </c>
       <c r="AE2" t="n">
-        <v>399760.6444794189</v>
+        <v>487065.0845590312</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.554341784748361e-06</v>
+        <v>2.941149135116637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.04340277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>361608.0496378908</v>
+        <v>440580.2764888561</v>
       </c>
     </row>
     <row r="3">
@@ -8957,28 +8957,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.0785249217827</v>
+        <v>310.8860842107933</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.0637381330371</v>
+        <v>425.3680557432647</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.7994094411573</v>
+        <v>384.7715255109425</v>
       </c>
       <c r="AD3" t="n">
-        <v>247078.5249217827</v>
+        <v>310886.0842107933</v>
       </c>
       <c r="AE3" t="n">
-        <v>338063.7381330371</v>
+        <v>425368.0557432647</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.709889127754745e-06</v>
+        <v>3.235478180273834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.68055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>305799.4094411572</v>
+        <v>384771.5255109425</v>
       </c>
     </row>
     <row r="4">
@@ -9063,28 +9063,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.4489365321231</v>
+        <v>298.0859036205414</v>
       </c>
       <c r="AB4" t="n">
-        <v>320.7833781201975</v>
+        <v>407.8542839555693</v>
       </c>
       <c r="AC4" t="n">
-        <v>290.1682627348</v>
+        <v>368.9292435219317</v>
       </c>
       <c r="AD4" t="n">
-        <v>234448.9365321231</v>
+        <v>298085.9036205414</v>
       </c>
       <c r="AE4" t="n">
-        <v>320783.3781201976</v>
+        <v>407854.2839555693</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.769839385539121e-06</v>
+        <v>3.348916968681033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.21180555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>290168.2627348</v>
+        <v>368929.2435219316</v>
       </c>
     </row>
     <row r="5">
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.2051311127645</v>
+        <v>286.8974142976106</v>
       </c>
       <c r="AB5" t="n">
-        <v>317.7133045557238</v>
+        <v>392.545699262623</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.3911926824433</v>
+        <v>355.0816886663466</v>
       </c>
       <c r="AD5" t="n">
-        <v>232205.1311127645</v>
+        <v>286897.4142976106</v>
       </c>
       <c r="AE5" t="n">
-        <v>317713.3045557238</v>
+        <v>392545.699262623</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.781559997735168e-06</v>
+        <v>3.371094889111205e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>287391.1926824433</v>
+        <v>355081.6886663466</v>
       </c>
     </row>
     <row r="6">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>232.8708422343395</v>
+        <v>287.5631254191857</v>
       </c>
       <c r="AB6" t="n">
-        <v>318.6241598813643</v>
+        <v>393.456554588264</v>
       </c>
       <c r="AC6" t="n">
-        <v>288.2151172541984</v>
+        <v>355.9056132381019</v>
       </c>
       <c r="AD6" t="n">
-        <v>232870.8422343395</v>
+        <v>287563.1254191857</v>
       </c>
       <c r="AE6" t="n">
-        <v>318624.1598813643</v>
+        <v>393456.554588264</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.781290558374339e-06</v>
+        <v>3.370585051859936e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.13368055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>288215.1172541985</v>
+        <v>355905.6132381019</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.1450442156294</v>
+        <v>434.0328391013884</v>
       </c>
       <c r="AB2" t="n">
-        <v>490.0298497400506</v>
+        <v>593.8628786359714</v>
       </c>
       <c r="AC2" t="n">
-        <v>443.2620886420731</v>
+        <v>537.1854389907385</v>
       </c>
       <c r="AD2" t="n">
-        <v>358145.0442156293</v>
+        <v>434032.8391013885</v>
       </c>
       <c r="AE2" t="n">
-        <v>490029.8497400506</v>
+        <v>593862.8786359713</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.373392829560699e-06</v>
+        <v>2.50202346917388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.29340277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>443262.0886420731</v>
+        <v>537185.4389907385</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.2228052533781</v>
+        <v>364.6139693601648</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.0415988092902</v>
+        <v>498.8809185116396</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.0986813089115</v>
+        <v>451.2684238326547</v>
       </c>
       <c r="AD3" t="n">
-        <v>298222.8052533781</v>
+        <v>364613.9693601648</v>
       </c>
       <c r="AE3" t="n">
-        <v>408041.5988092902</v>
+        <v>498880.9185116396</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.565349744816391e-06</v>
+        <v>2.851727280568896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>369098.6813089115</v>
+        <v>451268.4238326547</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>274.8882460309935</v>
+        <v>341.3646614838008</v>
       </c>
       <c r="AB4" t="n">
-        <v>376.1142254331256</v>
+        <v>467.0701897881243</v>
       </c>
       <c r="AC4" t="n">
-        <v>340.2184116374181</v>
+        <v>422.4936664118736</v>
       </c>
       <c r="AD4" t="n">
-        <v>274888.2460309935</v>
+        <v>341364.6614838008</v>
       </c>
       <c r="AE4" t="n">
-        <v>376114.2254331256</v>
+        <v>467070.1897881243</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.634043873882649e-06</v>
+        <v>2.976873065095245e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.68923611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>340218.4116374181</v>
+        <v>422493.6664118735</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>265.7330390033019</v>
+        <v>332.0388622555169</v>
       </c>
       <c r="AB5" t="n">
-        <v>363.5876672786096</v>
+        <v>454.3102198587613</v>
       </c>
       <c r="AC5" t="n">
-        <v>328.8873706120343</v>
+        <v>410.9514901038386</v>
       </c>
       <c r="AD5" t="n">
-        <v>265733.0390033019</v>
+        <v>332038.8622555169</v>
       </c>
       <c r="AE5" t="n">
-        <v>363587.6672786096</v>
+        <v>454310.2198587614</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.670079293182697e-06</v>
+        <v>3.042521773075671e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.39409722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>328887.3706120343</v>
+        <v>410951.4901038386</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>258.7484806255544</v>
+        <v>325.0543038777694</v>
       </c>
       <c r="AB6" t="n">
-        <v>354.0310863692069</v>
+        <v>444.7536389493587</v>
       </c>
       <c r="AC6" t="n">
-        <v>320.2428563718794</v>
+        <v>402.3069758636839</v>
       </c>
       <c r="AD6" t="n">
-        <v>258748.4806255543</v>
+        <v>325054.3038777694</v>
       </c>
       <c r="AE6" t="n">
-        <v>354031.0863692069</v>
+        <v>444753.6389493587</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.687865015154823e-06</v>
+        <v>3.074923495898628e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>320242.8563718795</v>
+        <v>402306.9758636839</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>253.5263176558417</v>
+        <v>310.5061918382307</v>
       </c>
       <c r="AB7" t="n">
-        <v>346.8858926083118</v>
+        <v>424.8482702394559</v>
       </c>
       <c r="AC7" t="n">
-        <v>313.7795898752861</v>
+        <v>384.3013476060937</v>
       </c>
       <c r="AD7" t="n">
-        <v>253526.3176558417</v>
+        <v>310506.1918382307</v>
       </c>
       <c r="AE7" t="n">
-        <v>346885.8926083118</v>
+        <v>424848.2702394559</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.703201978304701e-06</v>
+        <v>3.102864111956105e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.13368055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>313779.5898752861</v>
+        <v>384301.3476060937</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>254.1914608625372</v>
+        <v>311.1713350449261</v>
       </c>
       <c r="AB8" t="n">
-        <v>347.7959708877594</v>
+        <v>425.758348518904</v>
       </c>
       <c r="AC8" t="n">
-        <v>314.6028115610463</v>
+        <v>385.1245692918542</v>
       </c>
       <c r="AD8" t="n">
-        <v>254191.4608625372</v>
+        <v>311171.3350449261</v>
       </c>
       <c r="AE8" t="n">
-        <v>347795.9708877594</v>
+        <v>425758.3485189039</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.701784275828662e-06</v>
+        <v>3.100281365933986e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.15104166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>314602.8115610463</v>
+        <v>385124.5692918542</v>
       </c>
     </row>
   </sheetData>
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.0483644087113</v>
+        <v>305.5816628321649</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.9177388378079</v>
+        <v>418.1103123984701</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.0490984997167</v>
+        <v>378.2064510046684</v>
       </c>
       <c r="AD2" t="n">
-        <v>244048.3644087113</v>
+        <v>305581.6628321649</v>
       </c>
       <c r="AE2" t="n">
-        <v>333917.7388378079</v>
+        <v>418110.3123984701</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.703862072832857e-06</v>
+        <v>3.33902067759569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.25347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>302049.0984997167</v>
+        <v>378206.4510046684</v>
       </c>
     </row>
     <row r="3">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.4391004685822</v>
+        <v>276.8870580374639</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.7732817632961</v>
+        <v>378.8490882017405</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.6405334687934</v>
+        <v>342.6922629418004</v>
       </c>
       <c r="AD3" t="n">
-        <v>215439.1004685822</v>
+        <v>276887.0580374639</v>
       </c>
       <c r="AE3" t="n">
-        <v>294773.2817632961</v>
+        <v>378849.0882017405</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.833369917943067e-06</v>
+        <v>3.592814326523439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.24652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>266640.5334687934</v>
+        <v>342692.2629418004</v>
       </c>
     </row>
     <row r="4">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.4006747328734</v>
+        <v>275.8486323017551</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.3524618595898</v>
+        <v>377.4282682980335</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.3553146225631</v>
+        <v>341.4070440955699</v>
       </c>
       <c r="AD4" t="n">
-        <v>214400.6747328734</v>
+        <v>275848.6323017551</v>
       </c>
       <c r="AE4" t="n">
-        <v>293352.4618595898</v>
+        <v>377428.2682980335</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.838043169916577e-06</v>
+        <v>3.601972394667548e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.21180555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>265355.3146225631</v>
+        <v>341407.0440955699</v>
       </c>
     </row>
   </sheetData>
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>533.3083009574036</v>
+        <v>635.0653658575644</v>
       </c>
       <c r="AB2" t="n">
-        <v>729.6959452716427</v>
+        <v>868.9244506729138</v>
       </c>
       <c r="AC2" t="n">
-        <v>660.0547883896077</v>
+        <v>785.9955206438161</v>
       </c>
       <c r="AD2" t="n">
-        <v>533308.3009574036</v>
+        <v>635065.3658575644</v>
       </c>
       <c r="AE2" t="n">
-        <v>729695.9452716426</v>
+        <v>868924.4506729138</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.061347682481063e-06</v>
+        <v>1.826028742108731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.57465277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>660054.7883896077</v>
+        <v>785995.5206438161</v>
       </c>
     </row>
     <row r="3">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>402.0918781548868</v>
+        <v>493.5025548558883</v>
       </c>
       <c r="AB3" t="n">
-        <v>550.1598467332224</v>
+        <v>675.2319673499712</v>
       </c>
       <c r="AC3" t="n">
-        <v>497.6533631151974</v>
+        <v>610.7887760801074</v>
       </c>
       <c r="AD3" t="n">
-        <v>402091.8781548868</v>
+        <v>493502.5548558882</v>
       </c>
       <c r="AE3" t="n">
-        <v>550159.8467332224</v>
+        <v>675231.9673499712</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.30272513323268e-06</v>
+        <v>2.24131410999029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.94618055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>497653.3631151973</v>
+        <v>610788.7760801073</v>
       </c>
     </row>
     <row r="4">
@@ -11226,28 +11226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>364.4295399097987</v>
+        <v>445.7498509753559</v>
       </c>
       <c r="AB4" t="n">
-        <v>498.6285740011956</v>
+        <v>609.8946112000151</v>
       </c>
       <c r="AC4" t="n">
-        <v>451.0401627281196</v>
+        <v>551.6871254995477</v>
       </c>
       <c r="AD4" t="n">
-        <v>364429.5399097987</v>
+        <v>445749.8509753558</v>
       </c>
       <c r="AE4" t="n">
-        <v>498628.5740011956</v>
+        <v>609894.6112000151</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.401889221258327e-06</v>
+        <v>2.411924059876398e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>451040.1627281196</v>
+        <v>551687.1254995477</v>
       </c>
     </row>
     <row r="5">
@@ -11332,28 +11332,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>353.0910296239103</v>
+        <v>424.2357237080024</v>
       </c>
       <c r="AB5" t="n">
-        <v>483.114724008273</v>
+        <v>580.4580331365136</v>
       </c>
       <c r="AC5" t="n">
-        <v>437.0069328046964</v>
+        <v>525.0599331319302</v>
       </c>
       <c r="AD5" t="n">
-        <v>353091.0296239103</v>
+        <v>424235.7237080024</v>
       </c>
       <c r="AE5" t="n">
-        <v>483114.724008273</v>
+        <v>580458.0331365135</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.445584594022524e-06</v>
+        <v>2.4871011275627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.36631944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>437006.9328046964</v>
+        <v>525059.9331319302</v>
       </c>
     </row>
     <row r="6">
@@ -11438,28 +11438,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>343.6264728004245</v>
+        <v>414.7711668845166</v>
       </c>
       <c r="AB6" t="n">
-        <v>470.1648998156017</v>
+        <v>567.5082089438423</v>
       </c>
       <c r="AC6" t="n">
-        <v>425.2930216577813</v>
+        <v>513.346021985015</v>
       </c>
       <c r="AD6" t="n">
-        <v>343626.4728004245</v>
+        <v>414771.1668845166</v>
       </c>
       <c r="AE6" t="n">
-        <v>470164.8998156017</v>
+        <v>567508.2089438423</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.480689255492993e-06</v>
+        <v>2.547498037910896e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.02777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>425293.0216577813</v>
+        <v>513346.021985015</v>
       </c>
     </row>
     <row r="7">
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>327.9345300468752</v>
+        <v>399.1644754769878</v>
       </c>
       <c r="AB7" t="n">
-        <v>448.69449146054</v>
+        <v>546.1544452414298</v>
       </c>
       <c r="AC7" t="n">
-        <v>405.8717189422192</v>
+        <v>494.0302315201651</v>
       </c>
       <c r="AD7" t="n">
-        <v>327934.5300468752</v>
+        <v>399164.4754769878</v>
       </c>
       <c r="AE7" t="n">
-        <v>448694.4914605399</v>
+        <v>546154.4452414298</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.500120056525046e-06</v>
+        <v>2.58092836592912e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.84548611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>405871.7189422192</v>
+        <v>494030.2315201651</v>
       </c>
     </row>
     <row r="8">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>322.0203896648985</v>
+        <v>393.2503350950111</v>
       </c>
       <c r="AB8" t="n">
-        <v>440.6025036764601</v>
+        <v>538.0624574573499</v>
       </c>
       <c r="AC8" t="n">
-        <v>398.5520191150757</v>
+        <v>486.7105316930217</v>
       </c>
       <c r="AD8" t="n">
-        <v>322020.3896648985</v>
+        <v>393250.335095011</v>
       </c>
       <c r="AE8" t="n">
-        <v>440602.5036764601</v>
+        <v>538062.4574573499</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.517947577176375e-06</v>
+        <v>2.611600280182294e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.68055555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>398552.0191150757</v>
+        <v>486710.5316930217</v>
       </c>
     </row>
     <row r="9">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>318.0628598618657</v>
+        <v>389.2928052919782</v>
       </c>
       <c r="AB9" t="n">
-        <v>435.1876368060578</v>
+        <v>532.6475905869478</v>
       </c>
       <c r="AC9" t="n">
-        <v>393.6539395389713</v>
+        <v>481.8124521169173</v>
       </c>
       <c r="AD9" t="n">
-        <v>318062.8598618656</v>
+        <v>389292.8052919782</v>
       </c>
       <c r="AE9" t="n">
-        <v>435187.6368060578</v>
+        <v>532647.5905869477</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.526753654491393e-06</v>
+        <v>2.62675097071272e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.60243055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>393653.9395389713</v>
+        <v>481812.4521169172</v>
       </c>
     </row>
     <row r="10">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>315.4335292659005</v>
+        <v>386.6634746960132</v>
       </c>
       <c r="AB10" t="n">
-        <v>431.5900706867792</v>
+        <v>529.0500244676692</v>
       </c>
       <c r="AC10" t="n">
-        <v>390.3997200809009</v>
+        <v>478.5582326588468</v>
       </c>
       <c r="AD10" t="n">
-        <v>315433.5292659005</v>
+        <v>386663.4746960131</v>
       </c>
       <c r="AE10" t="n">
-        <v>431590.0706867792</v>
+        <v>529050.0244676692</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.531156693148903e-06</v>
+        <v>2.634326315977933e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>390399.7200809009</v>
+        <v>478558.2326588468</v>
       </c>
     </row>
     <row r="11">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>311.0082739598316</v>
+        <v>382.0676271893519</v>
       </c>
       <c r="AB11" t="n">
-        <v>425.5352411485301</v>
+        <v>522.7617831545731</v>
       </c>
       <c r="AC11" t="n">
-        <v>384.9227549757756</v>
+        <v>472.8701322710705</v>
       </c>
       <c r="AD11" t="n">
-        <v>311008.2739598316</v>
+        <v>382067.6271893519</v>
       </c>
       <c r="AE11" t="n">
-        <v>425535.2411485302</v>
+        <v>522761.7831545731</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.543265049457054e-06</v>
+        <v>2.65515851545727e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>384922.7549757756</v>
+        <v>472870.1322710705</v>
       </c>
     </row>
     <row r="12">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>306.6156236939977</v>
+        <v>377.6749769235181</v>
       </c>
       <c r="AB12" t="n">
-        <v>419.5250232647635</v>
+        <v>516.7515652708064</v>
       </c>
       <c r="AC12" t="n">
-        <v>379.4861438514419</v>
+        <v>467.4335211467367</v>
       </c>
       <c r="AD12" t="n">
-        <v>306615.6236939977</v>
+        <v>377674.9769235181</v>
       </c>
       <c r="AE12" t="n">
-        <v>419525.0232647635</v>
+        <v>516751.5652708064</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.548362045294279e-06</v>
+        <v>2.663927801008848e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>379486.1438514419</v>
+        <v>467433.5211467367</v>
       </c>
     </row>
     <row r="13">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>303.2672936554106</v>
+        <v>374.326646884931</v>
       </c>
       <c r="AB13" t="n">
-        <v>414.9436903880728</v>
+        <v>512.1702323941156</v>
       </c>
       <c r="AC13" t="n">
-        <v>375.3420469545615</v>
+        <v>463.2894242498564</v>
       </c>
       <c r="AD13" t="n">
-        <v>303267.2936554106</v>
+        <v>374326.646884931</v>
       </c>
       <c r="AE13" t="n">
-        <v>414943.6903880727</v>
+        <v>512170.2323941157</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.55259757704634e-06</v>
+        <v>2.671214953791146e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.37673611111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>375342.0469545615</v>
+        <v>463289.4242498564</v>
       </c>
     </row>
     <row r="14">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>301.332059275585</v>
+        <v>372.3914125051055</v>
       </c>
       <c r="AB14" t="n">
-        <v>412.2958173330802</v>
+        <v>509.5223593391231</v>
       </c>
       <c r="AC14" t="n">
-        <v>372.9468831876242</v>
+        <v>460.894260482919</v>
       </c>
       <c r="AD14" t="n">
-        <v>301332.0592755851</v>
+        <v>372391.4125051055</v>
       </c>
       <c r="AE14" t="n">
-        <v>412295.8173330802</v>
+        <v>509522.3593391231</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.5522147041196e-06</v>
+        <v>2.67055622811591e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>372946.8831876242</v>
+        <v>460894.2604829191</v>
       </c>
     </row>
     <row r="15">
@@ -12392,28 +12392,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>300.3467686786319</v>
+        <v>371.4061219081522</v>
       </c>
       <c r="AB15" t="n">
-        <v>410.9476992703754</v>
+        <v>508.1742412764183</v>
       </c>
       <c r="AC15" t="n">
-        <v>371.7274276207284</v>
+        <v>459.6748049160233</v>
       </c>
       <c r="AD15" t="n">
-        <v>300346.7686786319</v>
+        <v>371406.1219081522</v>
       </c>
       <c r="AE15" t="n">
-        <v>410947.6992703754</v>
+        <v>508174.2412764183</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.556976686145928e-06</v>
+        <v>2.678749128701657e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.34201388888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>371727.4276207284</v>
+        <v>459674.8049160233</v>
       </c>
     </row>
     <row r="16">
@@ -12498,28 +12498,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>301.0124725059974</v>
+        <v>372.0718257355178</v>
       </c>
       <c r="AB16" t="n">
-        <v>411.8585446157572</v>
+        <v>509.0850866218</v>
       </c>
       <c r="AC16" t="n">
-        <v>372.5513431647264</v>
+        <v>460.4987204600213</v>
       </c>
       <c r="AD16" t="n">
-        <v>301012.4725059974</v>
+        <v>372071.8257355178</v>
       </c>
       <c r="AE16" t="n">
-        <v>411858.5446157572</v>
+        <v>509085.0866218</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.557455277304353e-06</v>
+        <v>2.679572535795702e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>372551.3431647264</v>
+        <v>460498.7204600213</v>
       </c>
     </row>
   </sheetData>
@@ -12795,28 +12795,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.8332791781458</v>
+        <v>274.1556075585974</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.5761262298867</v>
+        <v>375.1117971534649</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.6530713757647</v>
+        <v>339.3116537058513</v>
       </c>
       <c r="AD2" t="n">
-        <v>213833.2791781458</v>
+        <v>274155.6075585974</v>
       </c>
       <c r="AE2" t="n">
-        <v>292576.1262298867</v>
+        <v>375111.7971534649</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.794877286620971e-06</v>
+        <v>3.598119377359387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>264653.0713757647</v>
+        <v>339311.6537058513</v>
       </c>
     </row>
     <row r="3">
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.72940840225</v>
+        <v>263.8811445821093</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.751564482994</v>
+        <v>361.0538236317181</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.1479063990968</v>
+        <v>326.5953534465302</v>
       </c>
       <c r="AD3" t="n">
-        <v>203729.40840225</v>
+        <v>263881.1445821093</v>
       </c>
       <c r="AE3" t="n">
-        <v>278751.564482994</v>
+        <v>361053.8236317181</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.867560151454542e-06</v>
+        <v>3.743823836549464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>252147.9063990968</v>
+        <v>326595.3534465302</v>
       </c>
     </row>
   </sheetData>
@@ -13198,28 +13198,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>425.5969029483778</v>
+        <v>513.9251686472122</v>
       </c>
       <c r="AB2" t="n">
-        <v>582.3204586241852</v>
+        <v>703.175088521393</v>
       </c>
       <c r="AC2" t="n">
-        <v>526.7446113449889</v>
+        <v>636.0650449853457</v>
       </c>
       <c r="AD2" t="n">
-        <v>425596.9029483778</v>
+        <v>513925.1686472122</v>
       </c>
       <c r="AE2" t="n">
-        <v>582320.4586241852</v>
+        <v>703175.088521393</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.228193894510603e-06</v>
+        <v>2.17522265045902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.58680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>526744.6113449889</v>
+        <v>636065.0449853457</v>
       </c>
     </row>
     <row r="3">
@@ -13304,28 +13304,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.18686925289</v>
+        <v>416.615542352838</v>
       </c>
       <c r="AB3" t="n">
-        <v>462.7221942634933</v>
+        <v>570.0317648277028</v>
       </c>
       <c r="AC3" t="n">
-        <v>418.5606374776632</v>
+        <v>515.6287332371528</v>
       </c>
       <c r="AD3" t="n">
-        <v>338186.86925289</v>
+        <v>416615.542352838</v>
       </c>
       <c r="AE3" t="n">
-        <v>462722.1942634934</v>
+        <v>570031.7648277028</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.441948592728783e-06</v>
+        <v>2.553798104452374e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.97395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>418560.6374776632</v>
+        <v>515628.7332371527</v>
       </c>
     </row>
     <row r="4">
@@ -13410,28 +13410,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.9087969001387</v>
+        <v>388.5233077643228</v>
       </c>
       <c r="AB4" t="n">
-        <v>437.7133292988177</v>
+        <v>531.5947301217745</v>
       </c>
       <c r="AC4" t="n">
-        <v>395.9385834850538</v>
+        <v>480.8600751768413</v>
       </c>
       <c r="AD4" t="n">
-        <v>319908.7969001387</v>
+        <v>388523.3077643228</v>
       </c>
       <c r="AE4" t="n">
-        <v>437713.3292988177</v>
+        <v>531594.7301217746</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.52240514464191e-06</v>
+        <v>2.69629263636747e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.18402777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>395938.5834850538</v>
+        <v>480860.0751768413</v>
       </c>
     </row>
     <row r="5">
@@ -13516,28 +13516,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>299.7341556272302</v>
+        <v>368.4339178374348</v>
       </c>
       <c r="AB5" t="n">
-        <v>410.1094950668673</v>
+        <v>504.1075405424734</v>
       </c>
       <c r="AC5" t="n">
-        <v>370.9692204499761</v>
+        <v>455.9962243924758</v>
       </c>
       <c r="AD5" t="n">
-        <v>299734.1556272302</v>
+        <v>368433.9178374348</v>
       </c>
       <c r="AE5" t="n">
-        <v>410109.4950668673</v>
+        <v>504107.5405424734</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.563752945903388e-06</v>
+        <v>2.769522664828475e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.81076388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>370969.2204499761</v>
+        <v>455996.2243924758</v>
       </c>
     </row>
     <row r="6">
@@ -13622,28 +13622,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>292.8222062321137</v>
+        <v>361.5219684423183</v>
       </c>
       <c r="AB6" t="n">
-        <v>400.6522609707827</v>
+        <v>494.6503064463888</v>
       </c>
       <c r="AC6" t="n">
-        <v>362.4145715027103</v>
+        <v>447.4415754452101</v>
       </c>
       <c r="AD6" t="n">
-        <v>292822.2062321136</v>
+        <v>361521.9684423183</v>
       </c>
       <c r="AE6" t="n">
-        <v>400652.2609707827</v>
+        <v>494650.3064463888</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.591666443505902e-06</v>
+        <v>2.818959543247999e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>362414.5715027103</v>
+        <v>447441.5754452101</v>
       </c>
     </row>
     <row r="7">
@@ -13728,28 +13728,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>287.2763845535482</v>
+        <v>355.8055545631606</v>
       </c>
       <c r="AB7" t="n">
-        <v>393.0642230857846</v>
+        <v>486.8288567865437</v>
       </c>
       <c r="AC7" t="n">
-        <v>355.5507253035784</v>
+        <v>440.366593963427</v>
       </c>
       <c r="AD7" t="n">
-        <v>287276.3845535482</v>
+        <v>355805.5545631606</v>
       </c>
       <c r="AE7" t="n">
-        <v>393064.2230857846</v>
+        <v>486828.8567865437</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.606270029149997e-06</v>
+        <v>2.844823578570868e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.44618055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>355550.7253035784</v>
+        <v>440366.593963427</v>
       </c>
     </row>
     <row r="8">
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>280.9569684920565</v>
+        <v>349.486138501669</v>
       </c>
       <c r="AB8" t="n">
-        <v>384.4177192374913</v>
+        <v>478.1823529382504</v>
       </c>
       <c r="AC8" t="n">
-        <v>347.7294316471219</v>
+        <v>432.5453003069705</v>
       </c>
       <c r="AD8" t="n">
-        <v>280956.9684920565</v>
+        <v>349486.138501669</v>
       </c>
       <c r="AE8" t="n">
-        <v>384417.7192374913</v>
+        <v>478182.3529382504</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.621794113378134e-06</v>
+        <v>2.87231788528547e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.31597222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>347729.4316471219</v>
+        <v>432545.3003069705</v>
       </c>
     </row>
     <row r="9">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>277.9184310971315</v>
+        <v>346.4476011067439</v>
       </c>
       <c r="AB9" t="n">
-        <v>380.2602583229458</v>
+        <v>474.0248920237049</v>
       </c>
       <c r="AC9" t="n">
-        <v>343.9687529672275</v>
+        <v>428.7846216270762</v>
       </c>
       <c r="AD9" t="n">
-        <v>277918.4310971315</v>
+        <v>346447.6011067439</v>
       </c>
       <c r="AE9" t="n">
-        <v>380260.2583229458</v>
+        <v>474024.8920237049</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.625799526135714e-06</v>
+        <v>2.879411768908949e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH9" t="n">
-        <v>343968.7529672275</v>
+        <v>428784.6216270762</v>
       </c>
     </row>
     <row r="10">
@@ -14046,28 +14046,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>274.660177326094</v>
+        <v>343.1893473357065</v>
       </c>
       <c r="AB10" t="n">
-        <v>375.8021717694008</v>
+        <v>469.56680547016</v>
       </c>
       <c r="AC10" t="n">
-        <v>339.9361399373892</v>
+        <v>424.7520085972378</v>
       </c>
       <c r="AD10" t="n">
-        <v>274660.177326094</v>
+        <v>343189.3473357065</v>
       </c>
       <c r="AE10" t="n">
-        <v>375802.1717694008</v>
+        <v>469566.80547016</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.631198125939408e-06</v>
+        <v>2.888973090314507e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.23784722222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>339936.1399373892</v>
+        <v>424752.0085972378</v>
       </c>
     </row>
     <row r="11">
@@ -14152,28 +14152,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>274.7223081710198</v>
+        <v>343.2514781806322</v>
       </c>
       <c r="AB11" t="n">
-        <v>375.8871819324477</v>
+        <v>469.6518156332069</v>
       </c>
       <c r="AC11" t="n">
-        <v>340.0130368497873</v>
+        <v>424.828905509636</v>
       </c>
       <c r="AD11" t="n">
-        <v>274722.3081710198</v>
+        <v>343251.4781806322</v>
       </c>
       <c r="AE11" t="n">
-        <v>375887.1819324477</v>
+        <v>469651.8156332069</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.63545232209808e-06</v>
+        <v>2.896507587827643e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.203125</v>
       </c>
       <c r="AH11" t="n">
-        <v>340013.0368497873</v>
+        <v>424828.905509636</v>
       </c>
     </row>
   </sheetData>
@@ -14449,28 +14449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>477.5499544285584</v>
+        <v>577.4865305122432</v>
       </c>
       <c r="AB2" t="n">
-        <v>653.4049156662379</v>
+        <v>790.1425479545084</v>
       </c>
       <c r="AC2" t="n">
-        <v>591.0448675746103</v>
+        <v>714.7324521497604</v>
       </c>
       <c r="AD2" t="n">
-        <v>477549.9544285584</v>
+        <v>577486.5305122433</v>
       </c>
       <c r="AE2" t="n">
-        <v>653404.9156662379</v>
+        <v>790142.5479545083</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.141324494832327e-06</v>
+        <v>1.990370259440775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>591044.8675746103</v>
+        <v>714732.4521497604</v>
       </c>
     </row>
     <row r="3">
@@ -14555,28 +14555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>374.2066084342424</v>
+        <v>454.0535497842554</v>
       </c>
       <c r="AB3" t="n">
-        <v>512.0059904901609</v>
+        <v>621.2560982436884</v>
       </c>
       <c r="AC3" t="n">
-        <v>463.1408573627</v>
+        <v>561.9642881657202</v>
       </c>
       <c r="AD3" t="n">
-        <v>374206.6084342424</v>
+        <v>454053.5497842554</v>
       </c>
       <c r="AE3" t="n">
-        <v>512005.9904901609</v>
+        <v>621256.0982436883</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.371383453916251e-06</v>
+        <v>2.391572995517876e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.42534722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>463140.8573627</v>
+        <v>561964.2881657202</v>
       </c>
     </row>
     <row r="4">
@@ -14661,28 +14661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.3056666554556</v>
+        <v>412.2357571662145</v>
       </c>
       <c r="AB4" t="n">
-        <v>468.3577145782007</v>
+        <v>564.039149512879</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.6583116430373</v>
+        <v>510.2080447172874</v>
       </c>
       <c r="AD4" t="n">
-        <v>342305.6666554556</v>
+        <v>412235.7571662145</v>
       </c>
       <c r="AE4" t="n">
-        <v>468357.7145782007</v>
+        <v>564039.149512879</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.460160178750289e-06</v>
+        <v>2.54639185171546e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.48784722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>423658.3116430374</v>
+        <v>510208.0447172874</v>
       </c>
     </row>
     <row r="5">
@@ -14767,28 +14767,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>330.9979491267825</v>
+        <v>400.9280396375414</v>
       </c>
       <c r="AB5" t="n">
-        <v>452.8859965941806</v>
+        <v>548.5674315288588</v>
       </c>
       <c r="AC5" t="n">
-        <v>409.6631927087195</v>
+        <v>496.2129257829696</v>
       </c>
       <c r="AD5" t="n">
-        <v>330997.9491267825</v>
+        <v>400928.0396375414</v>
       </c>
       <c r="AE5" t="n">
-        <v>452885.9965941806</v>
+        <v>548567.4315288588</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.505840459458413e-06</v>
+        <v>2.626054272504663e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.05381944444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>409663.1927087195</v>
+        <v>496212.9257829696</v>
       </c>
     </row>
     <row r="6">
@@ -14873,28 +14873,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>313.1236087194246</v>
+        <v>383.1389505762041</v>
       </c>
       <c r="AB6" t="n">
-        <v>428.4295354885886</v>
+        <v>524.2276150759163</v>
       </c>
       <c r="AC6" t="n">
-        <v>387.5408219261865</v>
+        <v>474.1960672511487</v>
       </c>
       <c r="AD6" t="n">
-        <v>313123.6087194246</v>
+        <v>383138.9505762041</v>
       </c>
       <c r="AE6" t="n">
-        <v>428429.5354885886</v>
+        <v>524227.6150759163</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.533628890625575e-06</v>
+        <v>2.674514869996493e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.79340277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>387540.8219261866</v>
+        <v>474196.0672511488</v>
       </c>
     </row>
     <row r="7">
@@ -14979,28 +14979,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>307.4629012115582</v>
+        <v>377.4782430683378</v>
       </c>
       <c r="AB7" t="n">
-        <v>420.6843057435358</v>
+        <v>516.4823853308635</v>
       </c>
       <c r="AC7" t="n">
-        <v>380.5347860375034</v>
+        <v>467.1900313624656</v>
       </c>
       <c r="AD7" t="n">
-        <v>307462.9012115583</v>
+        <v>377478.2430683378</v>
       </c>
       <c r="AE7" t="n">
-        <v>420684.3057435359</v>
+        <v>516482.3853308635</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.549960687890486e-06</v>
+        <v>2.702996098346955e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.65451388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>380534.7860375034</v>
+        <v>467190.0313624656</v>
       </c>
     </row>
     <row r="8">
@@ -15085,28 +15085,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>303.2045506249531</v>
+        <v>373.2198924817325</v>
       </c>
       <c r="AB8" t="n">
-        <v>414.8578426057737</v>
+        <v>510.6559221931014</v>
       </c>
       <c r="AC8" t="n">
-        <v>375.2643923641169</v>
+        <v>461.9196376890791</v>
       </c>
       <c r="AD8" t="n">
-        <v>303204.5506249531</v>
+        <v>373219.8924817325</v>
       </c>
       <c r="AE8" t="n">
-        <v>414857.8426057737</v>
+        <v>510655.9221931014</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.564366795627146e-06</v>
+        <v>2.728119092309824e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.52430555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>375264.3923641169</v>
+        <v>461919.6376890791</v>
       </c>
     </row>
     <row r="9">
@@ -15191,28 +15191,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>298.9772913544779</v>
+        <v>368.8220410106653</v>
       </c>
       <c r="AB9" t="n">
-        <v>409.0739199783926</v>
+        <v>504.6385877908733</v>
       </c>
       <c r="AC9" t="n">
-        <v>370.0324791945067</v>
+        <v>456.4765892368178</v>
       </c>
       <c r="AD9" t="n">
-        <v>298977.2913544779</v>
+        <v>368822.0410106652</v>
       </c>
       <c r="AE9" t="n">
-        <v>409073.9199783925</v>
+        <v>504638.5877908733</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.574019619085213e-06</v>
+        <v>2.744952773543829e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.44618055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>370032.4791945067</v>
+        <v>456476.5892368178</v>
       </c>
     </row>
     <row r="10">
@@ -15297,28 +15297,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>294.1273334319191</v>
+        <v>363.9720830881064</v>
       </c>
       <c r="AB10" t="n">
-        <v>402.437993583705</v>
+        <v>498.0026613961857</v>
       </c>
       <c r="AC10" t="n">
-        <v>364.0298763013468</v>
+        <v>450.4739863436579</v>
       </c>
       <c r="AD10" t="n">
-        <v>294127.3334319191</v>
+        <v>363972.0830881064</v>
       </c>
       <c r="AE10" t="n">
-        <v>402437.9935837049</v>
+        <v>498002.6613961856</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.585866266056476e-06</v>
+        <v>2.765612291421925e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.34201388888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>364029.8763013468</v>
+        <v>450473.9863436579</v>
       </c>
     </row>
     <row r="11">
@@ -15403,28 +15403,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>290.8103940504686</v>
+        <v>360.6551437066558</v>
       </c>
       <c r="AB11" t="n">
-        <v>397.8996107889664</v>
+        <v>493.4642786014471</v>
       </c>
       <c r="AC11" t="n">
-        <v>359.9246303908778</v>
+        <v>446.368740433189</v>
       </c>
       <c r="AD11" t="n">
-        <v>290810.3940504686</v>
+        <v>360655.1437066558</v>
       </c>
       <c r="AE11" t="n">
-        <v>397899.6107889664</v>
+        <v>493464.2786014471</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.589815148380231e-06</v>
+        <v>2.77249879738129e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>359924.6303908778</v>
+        <v>446368.740433189</v>
       </c>
     </row>
     <row r="12">
@@ -15509,28 +15509,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>287.9556577662607</v>
+        <v>357.800407422448</v>
       </c>
       <c r="AB12" t="n">
-        <v>393.9936346628369</v>
+        <v>489.5583024753176</v>
       </c>
       <c r="AC12" t="n">
-        <v>356.3914351441542</v>
+        <v>442.8355451864654</v>
       </c>
       <c r="AD12" t="n">
-        <v>287955.6577662607</v>
+        <v>357800.407422448</v>
       </c>
       <c r="AE12" t="n">
-        <v>393993.6346628369</v>
+        <v>489558.3024753176</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.590010154914737e-06</v>
+        <v>2.772838871749654e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>356391.4351441542</v>
+        <v>442835.5451864654</v>
       </c>
     </row>
     <row r="13">
@@ -15615,28 +15615,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>287.7967680533138</v>
+        <v>357.6415177095011</v>
       </c>
       <c r="AB13" t="n">
-        <v>393.7762347478636</v>
+        <v>489.3409025603443</v>
       </c>
       <c r="AC13" t="n">
-        <v>356.1947835719433</v>
+        <v>442.6388936142544</v>
       </c>
       <c r="AD13" t="n">
-        <v>287796.7680533138</v>
+        <v>357641.5177095011</v>
       </c>
       <c r="AE13" t="n">
-        <v>393776.2347478636</v>
+        <v>489340.9025603443</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.594544056842011e-06</v>
+        <v>2.78074560081411e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.27256944444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>356194.7835719433</v>
+        <v>442638.8936142544</v>
       </c>
     </row>
     <row r="14">
@@ -15721,28 +15721,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>288.6775800380044</v>
+        <v>358.5223296941917</v>
       </c>
       <c r="AB14" t="n">
-        <v>394.9814005639996</v>
+        <v>490.5460683764802</v>
       </c>
       <c r="AC14" t="n">
-        <v>357.2849300540479</v>
+        <v>443.7290400963591</v>
       </c>
       <c r="AD14" t="n">
-        <v>288677.5800380044</v>
+        <v>358522.3296941917</v>
       </c>
       <c r="AE14" t="n">
-        <v>394981.4005639995</v>
+        <v>490546.0683764801</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.594373426124318e-06</v>
+        <v>2.780448035741792e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.27256944444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>357284.930054048</v>
+        <v>443729.0400963592</v>
       </c>
     </row>
   </sheetData>
@@ -16018,28 +16018,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>592.4133345842275</v>
+        <v>706.039672291999</v>
       </c>
       <c r="AB2" t="n">
-        <v>810.5660598099166</v>
+        <v>966.0346279019203</v>
       </c>
       <c r="AC2" t="n">
-        <v>733.2067726982674</v>
+        <v>873.8376388530761</v>
       </c>
       <c r="AD2" t="n">
-        <v>592413.3345842275</v>
+        <v>706039.672291999</v>
       </c>
       <c r="AE2" t="n">
-        <v>810566.0598099167</v>
+        <v>966034.6279019204</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.886037585871347e-07</v>
+        <v>1.680560868520977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.65972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>733206.7726982674</v>
+        <v>873837.6388530761</v>
       </c>
     </row>
     <row r="3">
@@ -16124,28 +16124,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>439.1437431801295</v>
+        <v>521.7578944249038</v>
       </c>
       <c r="AB3" t="n">
-        <v>600.8558430736792</v>
+        <v>713.8921694859039</v>
       </c>
       <c r="AC3" t="n">
-        <v>543.5110047171989</v>
+        <v>645.7593027841211</v>
       </c>
       <c r="AD3" t="n">
-        <v>439143.7431801296</v>
+        <v>521757.8944249038</v>
       </c>
       <c r="AE3" t="n">
-        <v>600855.8430736793</v>
+        <v>713892.1694859039</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.243154286079024e-06</v>
+        <v>2.113279894570014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.43229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>543511.0047171989</v>
+        <v>645759.3027841211</v>
       </c>
     </row>
     <row r="4">
@@ -16230,28 +16230,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>398.1019125172555</v>
+        <v>480.6307229074582</v>
       </c>
       <c r="AB4" t="n">
-        <v>544.7005997229546</v>
+        <v>657.6201590129815</v>
       </c>
       <c r="AC4" t="n">
-        <v>492.7151389774883</v>
+        <v>594.8578140124719</v>
       </c>
       <c r="AD4" t="n">
-        <v>398101.9125172555</v>
+        <v>480630.7229074581</v>
       </c>
       <c r="AE4" t="n">
-        <v>544700.5997229547</v>
+        <v>657620.1590129815</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.345548582746433e-06</v>
+        <v>2.287343412581421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.18229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>492715.1389774883</v>
+        <v>594857.8140124718</v>
       </c>
     </row>
     <row r="5">
@@ -16336,28 +16336,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.7570006781426</v>
+        <v>456.3710624143657</v>
       </c>
       <c r="AB5" t="n">
-        <v>511.3908173229706</v>
+        <v>624.4270212656469</v>
       </c>
       <c r="AC5" t="n">
-        <v>462.5843954591855</v>
+        <v>564.8325827448813</v>
       </c>
       <c r="AD5" t="n">
-        <v>373757.0006781425</v>
+        <v>456371.0624143657</v>
       </c>
       <c r="AE5" t="n">
-        <v>511390.8173229706</v>
+        <v>624427.0212656469</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.395734022726117e-06</v>
+        <v>2.372655334437655e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.63541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>462584.3954591855</v>
+        <v>564832.5827448813</v>
       </c>
     </row>
     <row r="6">
@@ -16442,28 +16442,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>364.2174108101959</v>
+        <v>436.4941367311209</v>
       </c>
       <c r="AB6" t="n">
-        <v>498.3383296086437</v>
+        <v>597.230534637759</v>
       </c>
       <c r="AC6" t="n">
-        <v>450.7776188530324</v>
+        <v>540.2316906302505</v>
       </c>
       <c r="AD6" t="n">
-        <v>364217.410810196</v>
+        <v>436494.1367311209</v>
       </c>
       <c r="AE6" t="n">
-        <v>498338.3296086437</v>
+        <v>597230.534637759</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.429943881952775e-06</v>
+        <v>2.430809827817385e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.27951388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>450777.6188530324</v>
+        <v>540231.6906302505</v>
       </c>
     </row>
     <row r="7">
@@ -16548,28 +16548,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>357.6072610752289</v>
+        <v>429.8839869961539</v>
       </c>
       <c r="AB7" t="n">
-        <v>489.294031122037</v>
+        <v>588.1862361511523</v>
       </c>
       <c r="AC7" t="n">
-        <v>442.5964955202347</v>
+        <v>532.0505672974529</v>
       </c>
       <c r="AD7" t="n">
-        <v>357607.2610752289</v>
+        <v>429883.9869961538</v>
       </c>
       <c r="AE7" t="n">
-        <v>489294.031122037</v>
+        <v>588186.2361511523</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.451872072323644e-06</v>
+        <v>2.468086298126813e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.07118055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>442596.4955202347</v>
+        <v>532050.5672974528</v>
       </c>
     </row>
     <row r="8">
@@ -16654,28 +16654,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>341.9515972027215</v>
+        <v>424.4803180843732</v>
       </c>
       <c r="AB8" t="n">
-        <v>467.8732611325281</v>
+        <v>580.7926979530065</v>
       </c>
       <c r="AC8" t="n">
-        <v>423.220093754285</v>
+        <v>525.362658008042</v>
       </c>
       <c r="AD8" t="n">
-        <v>341951.5972027215</v>
+        <v>424480.3180843731</v>
       </c>
       <c r="AE8" t="n">
-        <v>467873.2611325281</v>
+        <v>580792.6979530065</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.466812416621394e-06</v>
+        <v>2.49348389324107e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.92361111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>423220.093754285</v>
+        <v>525362.658008042</v>
       </c>
     </row>
     <row r="9">
@@ -16760,28 +16760,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>336.9614447874142</v>
+        <v>409.3234220543597</v>
       </c>
       <c r="AB9" t="n">
-        <v>461.0455144479174</v>
+        <v>560.0543641296819</v>
       </c>
       <c r="AC9" t="n">
-        <v>417.0439776304509</v>
+        <v>506.6035616583812</v>
       </c>
       <c r="AD9" t="n">
-        <v>336961.4447874142</v>
+        <v>409323.4220543597</v>
       </c>
       <c r="AE9" t="n">
-        <v>461045.5144479173</v>
+        <v>560054.3641296818</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.480529299653816e-06</v>
+        <v>2.516801685290851e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.79340277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>417043.9776304509</v>
+        <v>506603.5616583812</v>
       </c>
     </row>
     <row r="10">
@@ -16866,28 +16866,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>334.7249819898416</v>
+        <v>407.0869592567872</v>
       </c>
       <c r="AB10" t="n">
-        <v>457.9854873825034</v>
+        <v>556.9943370642681</v>
       </c>
       <c r="AC10" t="n">
-        <v>414.2759952533851</v>
+        <v>503.8355792813155</v>
       </c>
       <c r="AD10" t="n">
-        <v>334724.9819898416</v>
+        <v>407086.9592567871</v>
       </c>
       <c r="AE10" t="n">
-        <v>457985.4873825035</v>
+        <v>556994.3370642681</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.48659954977794e-06</v>
+        <v>2.527120708187667e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.74131944444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>414275.9952533852</v>
+        <v>503835.5792813154</v>
       </c>
     </row>
     <row r="11">
@@ -16972,28 +16972,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>329.8122141862117</v>
+        <v>402.1741914531572</v>
       </c>
       <c r="AB11" t="n">
-        <v>451.263621737558</v>
+        <v>550.2724714193225</v>
       </c>
       <c r="AC11" t="n">
-        <v>408.1956550313956</v>
+        <v>497.7552390593259</v>
       </c>
       <c r="AD11" t="n">
-        <v>329812.2141862117</v>
+        <v>402174.1914531572</v>
       </c>
       <c r="AE11" t="n">
-        <v>451263.621737558</v>
+        <v>550272.4714193225</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.498175375596039e-06</v>
+        <v>2.546798844874619e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.62847222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>408195.6550313956</v>
+        <v>497755.2390593259</v>
       </c>
     </row>
     <row r="12">
@@ -17078,28 +17078,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>326.596520642177</v>
+        <v>398.9584979091225</v>
       </c>
       <c r="AB12" t="n">
-        <v>446.8637679642229</v>
+        <v>545.8726176459876</v>
       </c>
       <c r="AC12" t="n">
-        <v>404.2157171269541</v>
+        <v>493.7753011548843</v>
       </c>
       <c r="AD12" t="n">
-        <v>326596.520642177</v>
+        <v>398958.4979091225</v>
       </c>
       <c r="AE12" t="n">
-        <v>446863.7679642229</v>
+        <v>545872.6176459875</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.504504434833983e-06</v>
+        <v>2.557557826111996e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.57638888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>404215.7171269541</v>
+        <v>493775.3011548843</v>
       </c>
     </row>
     <row r="13">
@@ -17184,28 +17184,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>324.1522580829704</v>
+        <v>396.5142353499159</v>
       </c>
       <c r="AB13" t="n">
-        <v>443.5194200974628</v>
+        <v>542.5282697792275</v>
       </c>
       <c r="AC13" t="n">
-        <v>401.1905491267758</v>
+        <v>490.7501331547061</v>
       </c>
       <c r="AD13" t="n">
-        <v>324152.2580829704</v>
+        <v>396514.2353499159</v>
       </c>
       <c r="AE13" t="n">
-        <v>443519.4200974628</v>
+        <v>542528.2697792274</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.50916299888273e-06</v>
+        <v>2.565477076242111e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.53298611111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>401190.5491267758</v>
+        <v>490750.1331547061</v>
       </c>
     </row>
     <row r="14">
@@ -17290,28 +17290,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>320.0048819764572</v>
+        <v>392.1962670428105</v>
       </c>
       <c r="AB14" t="n">
-        <v>437.844797139211</v>
+        <v>536.6202350461285</v>
       </c>
       <c r="AC14" t="n">
-        <v>396.0575042192763</v>
+        <v>485.4059529645555</v>
       </c>
       <c r="AD14" t="n">
-        <v>320004.8819764572</v>
+        <v>392196.2670428105</v>
       </c>
       <c r="AE14" t="n">
-        <v>437844.797139211</v>
+        <v>536620.2350461285</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.514433293564141e-06</v>
+        <v>2.574436227904463e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>396057.5042192762</v>
+        <v>485405.9529645555</v>
       </c>
     </row>
     <row r="15">
@@ -17396,28 +17396,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>316.5881113722373</v>
+        <v>388.7794964385906</v>
       </c>
       <c r="AB15" t="n">
-        <v>433.1698208612368</v>
+        <v>531.9452587681543</v>
       </c>
       <c r="AC15" t="n">
-        <v>391.8287011159015</v>
+        <v>481.1771498611806</v>
       </c>
       <c r="AD15" t="n">
-        <v>316588.1113722373</v>
+        <v>388779.4964385906</v>
       </c>
       <c r="AE15" t="n">
-        <v>433169.8208612368</v>
+        <v>531945.2587681543</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.514056843944041e-06</v>
+        <v>2.573796288500009e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>391828.7011159015</v>
+        <v>481177.1498611806</v>
       </c>
     </row>
     <row r="16">
@@ -17502,28 +17502,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>314.2725555924507</v>
+        <v>386.463940658804</v>
       </c>
       <c r="AB16" t="n">
-        <v>430.0015752882215</v>
+        <v>528.7770131951391</v>
       </c>
       <c r="AC16" t="n">
-        <v>388.9628284537142</v>
+        <v>478.3112771989934</v>
       </c>
       <c r="AD16" t="n">
-        <v>314272.5555924507</v>
+        <v>386463.940658804</v>
       </c>
       <c r="AE16" t="n">
-        <v>430001.5752882215</v>
+        <v>528777.0131951391</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.520903521409623e-06</v>
+        <v>2.585435186418511e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.42881944444444</v>
       </c>
       <c r="AH16" t="n">
-        <v>388962.8284537142</v>
+        <v>478311.2771989934</v>
       </c>
     </row>
     <row r="17">
@@ -17608,28 +17608,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>313.4856117314894</v>
+        <v>385.6769967978427</v>
       </c>
       <c r="AB17" t="n">
-        <v>428.9248439801414</v>
+        <v>527.7002818870588</v>
       </c>
       <c r="AC17" t="n">
-        <v>387.9888588704753</v>
+        <v>477.3373076157545</v>
       </c>
       <c r="AD17" t="n">
-        <v>313485.6117314894</v>
+        <v>385676.9967978427</v>
       </c>
       <c r="AE17" t="n">
-        <v>428924.8439801414</v>
+        <v>527700.2818870589</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.520315318878216e-06</v>
+        <v>2.584435281099052e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH17" t="n">
-        <v>387988.8588704753</v>
+        <v>477337.3076157545</v>
       </c>
     </row>
     <row r="18">
@@ -17714,28 +17714,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>313.5078620911085</v>
+        <v>385.6992471574618</v>
       </c>
       <c r="AB18" t="n">
-        <v>428.9552879037888</v>
+        <v>527.7307258107064</v>
       </c>
       <c r="AC18" t="n">
-        <v>388.0163972687782</v>
+        <v>477.3648460140574</v>
       </c>
       <c r="AD18" t="n">
-        <v>313507.8620911085</v>
+        <v>385699.2471574618</v>
       </c>
       <c r="AE18" t="n">
-        <v>428955.2879037888</v>
+        <v>527730.7258107064</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.520574127992035e-06</v>
+        <v>2.584875239439614e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.42881944444444</v>
       </c>
       <c r="AH18" t="n">
-        <v>388016.3972687782</v>
+        <v>477364.8460140574</v>
       </c>
     </row>
   </sheetData>
@@ -18011,28 +18011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.723246569478</v>
+        <v>463.1112229652922</v>
       </c>
       <c r="AB2" t="n">
-        <v>515.4493658130286</v>
+        <v>633.6492062863216</v>
       </c>
       <c r="AC2" t="n">
-        <v>466.255601777561</v>
+        <v>573.1746153706009</v>
       </c>
       <c r="AD2" t="n">
-        <v>376723.246569478</v>
+        <v>463111.2229652922</v>
       </c>
       <c r="AE2" t="n">
-        <v>515449.3658130286</v>
+        <v>633649.2062863216</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.322910686992309e-06</v>
+        <v>2.385521022155993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>466255.601777561</v>
+        <v>573174.6153706009</v>
       </c>
     </row>
     <row r="3">
@@ -18117,28 +18117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.2023214258508</v>
+        <v>378.3740946079081</v>
       </c>
       <c r="AB3" t="n">
-        <v>425.8007454523076</v>
+        <v>517.7081289294842</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.1629199214382</v>
+        <v>468.298791712376</v>
       </c>
       <c r="AD3" t="n">
-        <v>311202.3214258507</v>
+        <v>378374.0946079082</v>
       </c>
       <c r="AE3" t="n">
-        <v>425800.7454523076</v>
+        <v>517708.1289294843</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.524352111902495e-06</v>
+        <v>2.74876758035626e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.49652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>385162.9199214382</v>
+        <v>468298.7917123761</v>
       </c>
     </row>
     <row r="4">
@@ -18223,28 +18223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>286.1900042107305</v>
+        <v>353.4470287388085</v>
       </c>
       <c r="AB4" t="n">
-        <v>391.5777895730232</v>
+        <v>483.6018177028492</v>
       </c>
       <c r="AC4" t="n">
-        <v>354.2061549190525</v>
+        <v>437.4475389607026</v>
       </c>
       <c r="AD4" t="n">
-        <v>286190.0042107305</v>
+        <v>353447.0287388085</v>
       </c>
       <c r="AE4" t="n">
-        <v>391577.7895730232</v>
+        <v>483601.8177028492</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.59717545239631e-06</v>
+        <v>2.880085296177712e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.83680555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>354206.1549190525</v>
+        <v>437447.5389607025</v>
       </c>
     </row>
     <row r="5">
@@ -18329,28 +18329,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>277.8105512821333</v>
+        <v>345.0675758102112</v>
       </c>
       <c r="AB5" t="n">
-        <v>380.1126524007437</v>
+        <v>472.1366805305696</v>
       </c>
       <c r="AC5" t="n">
-        <v>343.8352343470742</v>
+        <v>427.0766183887243</v>
       </c>
       <c r="AD5" t="n">
-        <v>277810.5512821333</v>
+        <v>345067.5758102112</v>
       </c>
       <c r="AE5" t="n">
-        <v>380112.6524007437</v>
+        <v>472136.6805305696</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.631079922699616e-06</v>
+        <v>2.941223079286475e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.55034722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>343835.2343470742</v>
+        <v>427076.6183887243</v>
       </c>
     </row>
     <row r="6">
@@ -18435,28 +18435,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>271.0487478963621</v>
+        <v>338.1351802238478</v>
       </c>
       <c r="AB6" t="n">
-        <v>370.8608546986199</v>
+        <v>462.6514710535989</v>
       </c>
       <c r="AC6" t="n">
-        <v>335.4664152326614</v>
+        <v>418.4966639916605</v>
       </c>
       <c r="AD6" t="n">
-        <v>271048.7478963621</v>
+        <v>338135.1802238479</v>
       </c>
       <c r="AE6" t="n">
-        <v>370860.8546986199</v>
+        <v>462651.4710535989</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.653631995288753e-06</v>
+        <v>2.981889802885848e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>335466.4152326614</v>
+        <v>418496.6639916605</v>
       </c>
     </row>
     <row r="7">
@@ -18541,28 +18541,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>265.6736204575006</v>
+        <v>332.7600527849863</v>
       </c>
       <c r="AB7" t="n">
-        <v>363.5063682028829</v>
+        <v>455.2969845578619</v>
       </c>
       <c r="AC7" t="n">
-        <v>328.8138306059911</v>
+        <v>411.8440793649901</v>
       </c>
       <c r="AD7" t="n">
-        <v>265673.6204575006</v>
+        <v>332760.0527849863</v>
       </c>
       <c r="AE7" t="n">
-        <v>363506.3682028829</v>
+        <v>455296.9845578619</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.668853371596093e-06</v>
+        <v>3.009337546353596e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.23784722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>328813.8306059911</v>
+        <v>411844.0793649901</v>
       </c>
     </row>
     <row r="8">
@@ -18647,28 +18647,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>261.9208961377473</v>
+        <v>319.5698638132222</v>
       </c>
       <c r="AB8" t="n">
-        <v>358.3717252300841</v>
+        <v>437.2495860966261</v>
       </c>
       <c r="AC8" t="n">
-        <v>324.1692307519994</v>
+        <v>395.5190992832117</v>
       </c>
       <c r="AD8" t="n">
-        <v>261920.8961377473</v>
+        <v>319569.8638132223</v>
       </c>
       <c r="AE8" t="n">
-        <v>358371.725230084</v>
+        <v>437249.5860966261</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.677100404913114e-06</v>
+        <v>3.024208899001675e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>324169.2307519994</v>
+        <v>395519.0992832117</v>
       </c>
     </row>
     <row r="9">
@@ -18753,28 +18753,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>261.6408741904918</v>
+        <v>319.2898418659668</v>
       </c>
       <c r="AB9" t="n">
-        <v>357.9885868481527</v>
+        <v>436.8664477146947</v>
       </c>
       <c r="AC9" t="n">
-        <v>323.8226585595015</v>
+        <v>395.1725270907139</v>
       </c>
       <c r="AD9" t="n">
-        <v>261640.8741904918</v>
+        <v>319289.8418659668</v>
       </c>
       <c r="AE9" t="n">
-        <v>357988.5868481527</v>
+        <v>436866.4477146947</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.678322187626746e-06</v>
+        <v>3.026412062356946e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.16840277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>323822.6585595015</v>
+        <v>395172.5270907138</v>
       </c>
     </row>
   </sheetData>
@@ -19050,28 +19050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.3952208839925</v>
+        <v>384.2383926792102</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.6964348841742</v>
+        <v>525.7319202652114</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.1640032040178</v>
+        <v>475.5568036644834</v>
       </c>
       <c r="AD2" t="n">
-        <v>310395.2208839924</v>
+        <v>384238.3926792102</v>
       </c>
       <c r="AE2" t="n">
-        <v>424696.4348841741</v>
+        <v>525731.9202652115</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.491648735135538e-06</v>
+        <v>2.782939745077245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.43402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>384164.0032040178</v>
+        <v>475556.8036644834</v>
       </c>
     </row>
     <row r="3">
@@ -19156,28 +19156,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.4206630048631</v>
+        <v>335.2637452915299</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.6872841889437</v>
+        <v>458.7226471004327</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.5501118032064</v>
+        <v>414.9428014824454</v>
       </c>
       <c r="AD3" t="n">
-        <v>261420.6630048631</v>
+        <v>335263.7452915299</v>
       </c>
       <c r="AE3" t="n">
-        <v>357687.2841889437</v>
+        <v>458722.6471004327</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.659723699265514e-06</v>
+        <v>3.096513904202074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.87152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>323550.1118032064</v>
+        <v>414942.8014824454</v>
       </c>
     </row>
     <row r="4">
@@ -19262,28 +19262,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>249.193462086752</v>
+        <v>313.7849133824967</v>
       </c>
       <c r="AB4" t="n">
-        <v>340.9574884665896</v>
+        <v>429.3343617033066</v>
       </c>
       <c r="AC4" t="n">
-        <v>308.4169843042804</v>
+        <v>388.3592927969033</v>
       </c>
       <c r="AD4" t="n">
-        <v>249193.4620867521</v>
+        <v>313784.9133824967</v>
       </c>
       <c r="AE4" t="n">
-        <v>340957.4884665895</v>
+        <v>429334.3617033066</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.718956933193005e-06</v>
+        <v>3.207024185237707e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>308416.9843042804</v>
+        <v>388359.2927969033</v>
       </c>
     </row>
     <row r="5">
@@ -19368,28 +19368,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>240.7761768696369</v>
+        <v>296.2865893750484</v>
       </c>
       <c r="AB5" t="n">
-        <v>329.4405874881227</v>
+        <v>405.3923828247436</v>
       </c>
       <c r="AC5" t="n">
-        <v>297.9992401911227</v>
+        <v>366.7023027797321</v>
       </c>
       <c r="AD5" t="n">
-        <v>240776.1768696369</v>
+        <v>296286.5893750484</v>
       </c>
       <c r="AE5" t="n">
-        <v>329440.5874881228</v>
+        <v>405392.3828247436</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.748971266588672e-06</v>
+        <v>3.263021337490319e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.15972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>297999.2401911227</v>
+        <v>366702.302779732</v>
       </c>
     </row>
     <row r="6">
@@ -19474,28 +19474,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>240.3397325703102</v>
+        <v>295.8501450757217</v>
       </c>
       <c r="AB6" t="n">
-        <v>328.8434251432207</v>
+        <v>404.7952204798412</v>
       </c>
       <c r="AC6" t="n">
-        <v>297.4590701822954</v>
+        <v>366.1621327709046</v>
       </c>
       <c r="AD6" t="n">
-        <v>240339.7325703102</v>
+        <v>295850.1450757217</v>
       </c>
       <c r="AE6" t="n">
-        <v>328843.4251432207</v>
+        <v>404795.2204798412</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.753240089624628e-06</v>
+        <v>3.27098559677713e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.125</v>
       </c>
       <c r="AH6" t="n">
-        <v>297459.0701822953</v>
+        <v>366162.1327709046</v>
       </c>
     </row>
   </sheetData>
@@ -36128,28 +36128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.037719549624</v>
+        <v>335.686959866994</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.2680564098718</v>
+        <v>459.3017079534919</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.7891401490145</v>
+        <v>415.4665975804058</v>
       </c>
       <c r="AD2" t="n">
-        <v>264037.719549624</v>
+        <v>335686.9598669939</v>
       </c>
       <c r="AE2" t="n">
-        <v>361268.0564098718</v>
+        <v>459301.7079534919</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.624201260924364e-06</v>
+        <v>3.123399256000029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>326789.1401490145</v>
+        <v>415466.5975804058</v>
       </c>
     </row>
     <row r="3">
@@ -36234,28 +36234,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.59420630464</v>
+        <v>294.1913726294997</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.8774102811482</v>
+        <v>402.5256148390446</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.6350749842479</v>
+        <v>364.109135107054</v>
       </c>
       <c r="AD3" t="n">
-        <v>231594.20630464</v>
+        <v>294191.3726294996</v>
       </c>
       <c r="AE3" t="n">
-        <v>316877.4102811482</v>
+        <v>402525.6148390446</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.770776256928549e-06</v>
+        <v>3.405268408845735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.44618055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>286635.0749842479</v>
+        <v>364109.135107054</v>
       </c>
     </row>
     <row r="4">
@@ -36340,28 +36340,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.9202987743723</v>
+        <v>276.7213241618824</v>
       </c>
       <c r="AB4" t="n">
-        <v>305.0093873324487</v>
+        <v>378.6223238015073</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.8997194888938</v>
+        <v>342.4871406176595</v>
       </c>
       <c r="AD4" t="n">
-        <v>222920.2987743723</v>
+        <v>276721.3241618823</v>
       </c>
       <c r="AE4" t="n">
-        <v>305009.3873324487</v>
+        <v>378622.3238015072</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.808873687589067e-06</v>
+        <v>3.478531180796087e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.15972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>275899.7194888938</v>
+        <v>342487.1406176595</v>
       </c>
     </row>
     <row r="5">
@@ -36446,28 +36446,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>223.8381864391974</v>
+        <v>277.6392118267075</v>
       </c>
       <c r="AB5" t="n">
-        <v>306.2652817298076</v>
+        <v>379.8782181988668</v>
       </c>
       <c r="AC5" t="n">
-        <v>277.0357530876279</v>
+        <v>343.623174216394</v>
       </c>
       <c r="AD5" t="n">
-        <v>223838.1864391974</v>
+        <v>277639.2118267075</v>
       </c>
       <c r="AE5" t="n">
-        <v>306265.2817298076</v>
+        <v>379878.2181988668</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.808379984383964e-06</v>
+        <v>3.477581771224377e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.16840277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>277035.7530876279</v>
+        <v>343623.174216394</v>
       </c>
     </row>
   </sheetData>
@@ -36743,28 +36743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.9534277971857</v>
+        <v>250.7678950479034</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.6391482995546</v>
+        <v>343.1116971031157</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.5732366022816</v>
+        <v>310.365598291988</v>
       </c>
       <c r="AD2" t="n">
-        <v>191953.4277971857</v>
+        <v>250767.8950479034</v>
       </c>
       <c r="AE2" t="n">
-        <v>262639.1482995546</v>
+        <v>343111.6971031157</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.883979752148643e-06</v>
+        <v>3.885895358242938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>237573.2366022816</v>
+        <v>310365.598291988</v>
       </c>
     </row>
     <row r="3">
@@ -36849,28 +36849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.0192547156904</v>
+        <v>250.833721966408</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.7292155935313</v>
+        <v>343.2017643970924</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.6547080001314</v>
+        <v>310.4470696898379</v>
       </c>
       <c r="AD3" t="n">
-        <v>192019.2547156904</v>
+        <v>250833.721966408</v>
       </c>
       <c r="AE3" t="n">
-        <v>262729.2155935313</v>
+        <v>343201.7643970924</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.89245805845392e-06</v>
+        <v>3.903382707074508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.50694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>237654.7080001314</v>
+        <v>310447.0696898379</v>
       </c>
     </row>
   </sheetData>
@@ -37146,28 +37146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>456.3547832344655</v>
+        <v>545.4615656201313</v>
       </c>
       <c r="AB2" t="n">
-        <v>624.4047473735204</v>
+        <v>746.3245781473831</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.8124346417578</v>
+        <v>675.0964078821205</v>
       </c>
       <c r="AD2" t="n">
-        <v>456354.7832344655</v>
+        <v>545461.5656201313</v>
       </c>
       <c r="AE2" t="n">
-        <v>624404.7473735204</v>
+        <v>746324.5781473832</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18341828575342e-06</v>
+        <v>2.079219244849632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>564812.4346417579</v>
+        <v>675096.4078821205</v>
       </c>
     </row>
     <row r="3">
@@ -37252,28 +37252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.8426246527799</v>
+        <v>439.9538402136868</v>
       </c>
       <c r="AB3" t="n">
-        <v>493.7207983030097</v>
+        <v>601.9642535739513</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.6007782544622</v>
+        <v>544.5136300749887</v>
       </c>
       <c r="AD3" t="n">
-        <v>360842.6246527799</v>
+        <v>439953.8402136868</v>
       </c>
       <c r="AE3" t="n">
-        <v>493720.7983030097</v>
+        <v>601964.2535739513</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.40777266878762e-06</v>
+        <v>2.473401045559334e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.18229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>446600.7782544622</v>
+        <v>544513.6300749887</v>
       </c>
     </row>
     <row r="4">
@@ -37358,28 +37358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>330.4509926150722</v>
+        <v>399.7373230603633</v>
       </c>
       <c r="AB4" t="n">
-        <v>452.1376265648403</v>
+        <v>546.9382405772559</v>
       </c>
       <c r="AC4" t="n">
-        <v>408.9862460646356</v>
+        <v>494.7392225292037</v>
       </c>
       <c r="AD4" t="n">
-        <v>330450.9926150722</v>
+        <v>399737.3230603634</v>
       </c>
       <c r="AE4" t="n">
-        <v>452137.6265648403</v>
+        <v>546938.2405772558</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4927333815991e-06</v>
+        <v>2.622673666457961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.31423611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>408986.2460646356</v>
+        <v>494739.2225292037</v>
       </c>
     </row>
     <row r="5">
@@ -37464,28 +37464,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>310.8434952193793</v>
+        <v>389.9546212717352</v>
       </c>
       <c r="AB5" t="n">
-        <v>425.3097836063184</v>
+        <v>533.5531164077115</v>
       </c>
       <c r="AC5" t="n">
-        <v>384.718814784961</v>
+        <v>482.6315558242608</v>
       </c>
       <c r="AD5" t="n">
-        <v>310843.4952193793</v>
+        <v>389954.6212717352</v>
       </c>
       <c r="AE5" t="n">
-        <v>425309.7836063183</v>
+        <v>533553.1164077115</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.534093566334912e-06</v>
+        <v>2.695341879471491e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.93229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>384718.8147849609</v>
+        <v>482631.5558242608</v>
       </c>
     </row>
     <row r="6">
@@ -37570,28 +37570,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>303.1558164060786</v>
+        <v>372.5273981973903</v>
       </c>
       <c r="AB6" t="n">
-        <v>414.7911622975075</v>
+        <v>509.7084209625725</v>
       </c>
       <c r="AC6" t="n">
-        <v>375.2040759308853</v>
+        <v>461.0625646461657</v>
       </c>
       <c r="AD6" t="n">
-        <v>303155.8164060786</v>
+        <v>372527.3981973903</v>
       </c>
       <c r="AE6" t="n">
-        <v>414791.1622975075</v>
+        <v>509708.4209625724</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.562036310189166e-06</v>
+        <v>2.744436178144322e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.68055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>375204.0759308853</v>
+        <v>461062.5646461657</v>
       </c>
     </row>
     <row r="7">
@@ -37676,28 +37676,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>298.3460975257338</v>
+        <v>367.7176793170456</v>
       </c>
       <c r="AB7" t="n">
-        <v>408.2102927355984</v>
+        <v>503.1275514006634</v>
       </c>
       <c r="AC7" t="n">
-        <v>369.2512753236563</v>
+        <v>455.1097640389367</v>
       </c>
       <c r="AD7" t="n">
-        <v>298346.0975257338</v>
+        <v>367717.6793170455</v>
       </c>
       <c r="AE7" t="n">
-        <v>408210.2927355984</v>
+        <v>503127.5514006634</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.576389279058796e-06</v>
+        <v>2.769653778255565e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.55902777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>369251.2753236563</v>
+        <v>455109.7640389367</v>
       </c>
     </row>
     <row r="8">
@@ -37782,28 +37782,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>292.2285819419178</v>
+        <v>361.4295715326373</v>
       </c>
       <c r="AB8" t="n">
-        <v>399.8400380280814</v>
+        <v>494.5238849182993</v>
       </c>
       <c r="AC8" t="n">
-        <v>361.6798659776983</v>
+        <v>447.3272194103278</v>
       </c>
       <c r="AD8" t="n">
-        <v>292228.5819419178</v>
+        <v>361429.5715326373</v>
       </c>
       <c r="AE8" t="n">
-        <v>399840.0380280814</v>
+        <v>494523.8849182993</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.593105687056186e-06</v>
+        <v>2.799023847681867e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>361679.8659776984</v>
+        <v>447327.2194103277</v>
       </c>
     </row>
     <row r="9">
@@ -37888,28 +37888,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>287.4296374884647</v>
+        <v>356.6306270791843</v>
       </c>
       <c r="AB9" t="n">
-        <v>393.2739105123796</v>
+        <v>487.9577574025976</v>
       </c>
       <c r="AC9" t="n">
-        <v>355.7404004564774</v>
+        <v>441.3877538891068</v>
       </c>
       <c r="AD9" t="n">
-        <v>287429.6374884647</v>
+        <v>356630.6270791843</v>
       </c>
       <c r="AE9" t="n">
-        <v>393273.9105123797</v>
+        <v>487957.7574025976</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.602953350088523e-06</v>
+        <v>2.816325803161279e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>355740.4004564774</v>
+        <v>441387.7538891067</v>
       </c>
     </row>
     <row r="10">
@@ -37994,28 +37994,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>283.842123069431</v>
+        <v>353.0431126601505</v>
       </c>
       <c r="AB10" t="n">
-        <v>388.3653150142917</v>
+        <v>483.0491619045097</v>
       </c>
       <c r="AC10" t="n">
-        <v>351.3002744234699</v>
+        <v>436.9476278560993</v>
       </c>
       <c r="AD10" t="n">
-        <v>283842.123069431</v>
+        <v>353043.1126601505</v>
       </c>
       <c r="AE10" t="n">
-        <v>388365.3150142917</v>
+        <v>483049.1619045097</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.607458655925816e-06</v>
+        <v>2.82424144779311e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.29861111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>351300.2744234699</v>
+        <v>436947.6278560993</v>
       </c>
     </row>
     <row r="11">
@@ -38100,28 +38100,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>282.4332421341442</v>
+        <v>351.6342317248638</v>
       </c>
       <c r="AB11" t="n">
-        <v>386.4376219631922</v>
+        <v>481.1214688534101</v>
       </c>
       <c r="AC11" t="n">
-        <v>349.5565576916332</v>
+        <v>435.2039111242625</v>
       </c>
       <c r="AD11" t="n">
-        <v>282433.2421341442</v>
+        <v>351634.2317248638</v>
       </c>
       <c r="AE11" t="n">
-        <v>386437.6219631922</v>
+        <v>481121.4688534102</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.61253020238747e-06</v>
+        <v>2.833151954865007e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>349556.5576916332</v>
+        <v>435203.9111242625</v>
       </c>
     </row>
     <row r="12">
@@ -38206,28 +38206,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>282.2566139114789</v>
+        <v>351.4576035021985</v>
       </c>
       <c r="AB12" t="n">
-        <v>386.1959514366542</v>
+        <v>480.8797983268722</v>
       </c>
       <c r="AC12" t="n">
-        <v>349.3379518609613</v>
+        <v>434.9853052935907</v>
       </c>
       <c r="AD12" t="n">
-        <v>282256.6139114789</v>
+        <v>351457.6035021985</v>
       </c>
       <c r="AE12" t="n">
-        <v>386195.9514366543</v>
+        <v>480879.7983268722</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.61255482154505e-06</v>
+        <v>2.833195209753705e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>349337.9518609613</v>
+        <v>434985.3052935906</v>
       </c>
     </row>
   </sheetData>
@@ -38503,28 +38503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>567.6082643855386</v>
+        <v>670.1020807636736</v>
       </c>
       <c r="AB2" t="n">
-        <v>776.6266684416064</v>
+        <v>916.8632297182232</v>
       </c>
       <c r="AC2" t="n">
-        <v>702.506509207914</v>
+        <v>829.3590898995403</v>
       </c>
       <c r="AD2" t="n">
-        <v>567608.2643855386</v>
+        <v>670102.0807636736</v>
       </c>
       <c r="AE2" t="n">
-        <v>776626.6684416065</v>
+        <v>916863.2297182232</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.024037985323496e-06</v>
+        <v>1.750990833656988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.11284722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>702506.509207914</v>
+        <v>829359.0898995403</v>
       </c>
     </row>
     <row r="3">
@@ -38609,28 +38609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>424.3270704469788</v>
+        <v>506.3050732802828</v>
       </c>
       <c r="AB3" t="n">
-        <v>580.5830177747151</v>
+        <v>692.7489378654785</v>
       </c>
       <c r="AC3" t="n">
-        <v>525.1729894116787</v>
+        <v>626.6339515148373</v>
       </c>
       <c r="AD3" t="n">
-        <v>424327.0704469788</v>
+        <v>506305.0732802828</v>
       </c>
       <c r="AE3" t="n">
-        <v>580583.0177747151</v>
+        <v>692748.9378654786</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.275747542239569e-06</v>
+        <v>2.181386124867475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>525172.9894116787</v>
+        <v>626633.9515148373</v>
       </c>
     </row>
     <row r="4">
@@ -38715,28 +38715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>387.1974183720778</v>
+        <v>459.0028552875377</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.7805897611931</v>
+        <v>628.0279563812278</v>
       </c>
       <c r="AC4" t="n">
-        <v>479.2190738261119</v>
+        <v>568.0898496669754</v>
       </c>
       <c r="AD4" t="n">
-        <v>387197.4183720778</v>
+        <v>459002.8552875377</v>
       </c>
       <c r="AE4" t="n">
-        <v>529780.5897611931</v>
+        <v>628027.9563812278</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.369931042801003e-06</v>
+        <v>2.342429414792605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.03472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>479219.0738261119</v>
+        <v>568089.8496669754</v>
       </c>
     </row>
     <row r="5">
@@ -38821,28 +38821,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>363.1102622202787</v>
+        <v>434.830358281167</v>
       </c>
       <c r="AB5" t="n">
-        <v>496.8234800639704</v>
+        <v>594.9540795618074</v>
       </c>
       <c r="AC5" t="n">
-        <v>449.407344422798</v>
+        <v>538.1724972317228</v>
       </c>
       <c r="AD5" t="n">
-        <v>363110.2622202787</v>
+        <v>434830.358281167</v>
       </c>
       <c r="AE5" t="n">
-        <v>496823.4800639704</v>
+        <v>594954.0795618073</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.421340525349271e-06</v>
+        <v>2.430333900754257e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.48784722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>449407.344422798</v>
+        <v>538172.4972317228</v>
       </c>
     </row>
     <row r="6">
@@ -38927,28 +38927,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>353.6895419087823</v>
+        <v>425.4096379696707</v>
       </c>
       <c r="AB6" t="n">
-        <v>483.9336349209334</v>
+        <v>582.0642344187703</v>
       </c>
       <c r="AC6" t="n">
-        <v>437.7476880092012</v>
+        <v>526.5128408181259</v>
       </c>
       <c r="AD6" t="n">
-        <v>353689.5419087823</v>
+        <v>425409.6379696707</v>
       </c>
       <c r="AE6" t="n">
-        <v>483933.6349209334</v>
+        <v>582064.2344187703</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455479078827333e-06</v>
+        <v>2.488707022719562e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.14930555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>437747.6880092012</v>
+        <v>526512.840818126</v>
       </c>
     </row>
     <row r="7">
@@ -39033,28 +39033,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>337.5041382379529</v>
+        <v>419.3967107081342</v>
       </c>
       <c r="AB7" t="n">
-        <v>461.7880515688898</v>
+        <v>573.8370820679072</v>
       </c>
       <c r="AC7" t="n">
-        <v>417.7156480507551</v>
+        <v>519.0708763407484</v>
       </c>
       <c r="AD7" t="n">
-        <v>337504.138237953</v>
+        <v>419396.7107081342</v>
       </c>
       <c r="AE7" t="n">
-        <v>461788.0515688898</v>
+        <v>573837.0820679072</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.475620588141352e-06</v>
+        <v>2.523146759028488e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>417715.6480507551</v>
+        <v>519070.8763407484</v>
       </c>
     </row>
     <row r="8">
@@ -39139,28 +39139,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>332.7414189585083</v>
+        <v>404.5467663654172</v>
       </c>
       <c r="AB8" t="n">
-        <v>455.2714889344083</v>
+        <v>553.5187330848945</v>
       </c>
       <c r="AC8" t="n">
-        <v>411.8210170080555</v>
+        <v>500.6916820676925</v>
       </c>
       <c r="AD8" t="n">
-        <v>332741.4189585083</v>
+        <v>404546.7663654172</v>
       </c>
       <c r="AE8" t="n">
-        <v>455271.4889344083</v>
+        <v>553518.7330848945</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.489427841876051e-06</v>
+        <v>2.546755624201391e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>411821.0170080555</v>
+        <v>500691.6820676925</v>
       </c>
     </row>
     <row r="9">
@@ -39245,28 +39245,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>328.2157972950387</v>
+        <v>400.0211447019476</v>
       </c>
       <c r="AB9" t="n">
-        <v>449.0793337181124</v>
+        <v>547.3265778685987</v>
       </c>
       <c r="AC9" t="n">
-        <v>406.2198323948585</v>
+        <v>495.0904974544955</v>
       </c>
       <c r="AD9" t="n">
-        <v>328215.7972950387</v>
+        <v>400021.1447019476</v>
       </c>
       <c r="AE9" t="n">
-        <v>449079.3337181124</v>
+        <v>547326.5778685987</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.501218572298981e-06</v>
+        <v>2.566916459237359e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.71527777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>406219.8323948585</v>
+        <v>495090.4974544955</v>
       </c>
     </row>
     <row r="10">
@@ -39351,28 +39351,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>323.9366623803354</v>
+        <v>395.7420097872444</v>
       </c>
       <c r="AB10" t="n">
-        <v>443.2244325457065</v>
+        <v>541.4716766961927</v>
       </c>
       <c r="AC10" t="n">
-        <v>400.9237147729417</v>
+        <v>489.7943798325786</v>
       </c>
       <c r="AD10" t="n">
-        <v>323936.6623803354</v>
+        <v>395742.0097872444</v>
       </c>
       <c r="AE10" t="n">
-        <v>443224.4325457065</v>
+        <v>541471.6766961927</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.511277465054157e-06</v>
+        <v>2.584116044861604e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.62847222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>400923.7147729417</v>
+        <v>489794.3798325786</v>
       </c>
     </row>
     <row r="11">
@@ -39457,28 +39457,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>321.2883092962145</v>
+        <v>393.0936567031235</v>
       </c>
       <c r="AB11" t="n">
-        <v>439.6008390189202</v>
+        <v>537.8480831694066</v>
       </c>
       <c r="AC11" t="n">
-        <v>397.6459519266064</v>
+        <v>486.5166169862433</v>
       </c>
       <c r="AD11" t="n">
-        <v>321288.3092962145</v>
+        <v>393093.6567031235</v>
       </c>
       <c r="AE11" t="n">
-        <v>439600.8390189202</v>
+        <v>537848.0831694065</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.51713724456012e-06</v>
+        <v>2.594135614788935e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.57638888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>397645.9519266064</v>
+        <v>486516.6169862433</v>
       </c>
     </row>
     <row r="12">
@@ -39563,28 +39563,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>317.5239480197399</v>
+        <v>389.3292954266488</v>
       </c>
       <c r="AB12" t="n">
-        <v>434.450273848549</v>
+        <v>532.6975179990352</v>
       </c>
       <c r="AC12" t="n">
-        <v>392.9869494672316</v>
+        <v>481.8576145268687</v>
       </c>
       <c r="AD12" t="n">
-        <v>317523.9480197399</v>
+        <v>389329.2954266488</v>
       </c>
       <c r="AE12" t="n">
-        <v>434450.273848549</v>
+        <v>532697.5179990352</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.522925852655079e-06</v>
+        <v>2.604033489534964e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.52430555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>392986.9494672316</v>
+        <v>481857.6145268687</v>
       </c>
     </row>
     <row r="13">
@@ -39669,28 +39669,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>313.2364660634004</v>
+        <v>384.8712212697171</v>
       </c>
       <c r="AB13" t="n">
-        <v>428.5839518855308</v>
+        <v>526.5977842611701</v>
       </c>
       <c r="AC13" t="n">
-        <v>387.6805010389293</v>
+        <v>476.3400308159153</v>
       </c>
       <c r="AD13" t="n">
-        <v>313236.4660634004</v>
+        <v>384871.2212697171</v>
       </c>
       <c r="AE13" t="n">
-        <v>428583.9518855308</v>
+        <v>526597.7842611701</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.528429775106025e-06</v>
+        <v>2.613444583555778e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.47222222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>387680.5010389293</v>
+        <v>476340.0308159153</v>
       </c>
     </row>
     <row r="14">
@@ -39775,28 +39775,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>309.7373715631609</v>
+        <v>381.3721267694776</v>
       </c>
       <c r="AB14" t="n">
-        <v>423.7963364211486</v>
+        <v>521.8101687967878</v>
       </c>
       <c r="AC14" t="n">
-        <v>383.3498088750073</v>
+        <v>472.0093386519932</v>
       </c>
       <c r="AD14" t="n">
-        <v>309737.3715631609</v>
+        <v>381372.1267694776</v>
       </c>
       <c r="AE14" t="n">
-        <v>423796.3364211486</v>
+        <v>521810.1687967879</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.532984745410256e-06</v>
+        <v>2.62123307515921e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH14" t="n">
-        <v>383349.8088750073</v>
+        <v>472009.3386519932</v>
       </c>
     </row>
     <row r="15">
@@ -39881,28 +39881,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>308.0330205490468</v>
+        <v>379.6677757553636</v>
       </c>
       <c r="AB15" t="n">
-        <v>421.4643681729778</v>
+        <v>519.478200548617</v>
       </c>
       <c r="AC15" t="n">
-        <v>381.2404004035039</v>
+        <v>469.8999301804898</v>
       </c>
       <c r="AD15" t="n">
-        <v>308033.0205490468</v>
+        <v>379667.7757553636</v>
       </c>
       <c r="AE15" t="n">
-        <v>421464.3681729778</v>
+        <v>519478.200548617</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.539034315345562e-06</v>
+        <v>2.631577165570018e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.37673611111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>381240.4004035039</v>
+        <v>469899.9301804898</v>
       </c>
     </row>
     <row r="16">
@@ -39987,28 +39987,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>307.3681402863574</v>
+        <v>379.0028954926741</v>
       </c>
       <c r="AB16" t="n">
-        <v>420.554649665119</v>
+        <v>518.5684820407581</v>
       </c>
       <c r="AC16" t="n">
-        <v>380.4175041532371</v>
+        <v>469.0770339302231</v>
       </c>
       <c r="AD16" t="n">
-        <v>307368.1402863574</v>
+        <v>379002.8954926741</v>
       </c>
       <c r="AE16" t="n">
-        <v>420554.649665119</v>
+        <v>518568.4820407581</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.53815653460985e-06</v>
+        <v>2.63007625833394e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>380417.5041532372</v>
+        <v>469077.0339302231</v>
       </c>
     </row>
     <row r="17">
@@ -40093,28 +40093,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>308.0765896817331</v>
+        <v>379.7113448880499</v>
       </c>
       <c r="AB17" t="n">
-        <v>421.5239813824537</v>
+        <v>519.5378137580929</v>
       </c>
       <c r="AC17" t="n">
-        <v>381.294324211935</v>
+        <v>469.953853988921</v>
       </c>
       <c r="AD17" t="n">
-        <v>308076.5896817332</v>
+        <v>379711.3448880499</v>
       </c>
       <c r="AE17" t="n">
-        <v>421523.9813824537</v>
+        <v>519537.8137580929</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.538203982217186e-06</v>
+        <v>2.630157388454808e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>381294.324211935</v>
+        <v>469953.853988921</v>
       </c>
     </row>
   </sheetData>
@@ -40390,28 +40390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.8750182560046</v>
+        <v>240.755266177214</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.5859119710401</v>
+        <v>329.411976556235</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.5749056356424</v>
+        <v>297.9733598464187</v>
       </c>
       <c r="AD2" t="n">
-        <v>183875.0182560046</v>
+        <v>240755.266177214</v>
       </c>
       <c r="AE2" t="n">
-        <v>251585.9119710401</v>
+        <v>329411.976556235</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.88840411950459e-06</v>
+        <v>4.047719809023085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>227574.9056356424</v>
+        <v>297973.3598464187</v>
       </c>
     </row>
   </sheetData>
@@ -40687,28 +40687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.0601457554843</v>
+        <v>413.2936598220556</v>
       </c>
       <c r="AB2" t="n">
-        <v>450.2346085317192</v>
+        <v>565.486618597972</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.264849401693</v>
+        <v>511.5173693844348</v>
       </c>
       <c r="AD2" t="n">
-        <v>329060.1457554843</v>
+        <v>413293.6598220556</v>
       </c>
       <c r="AE2" t="n">
-        <v>450234.6085317192</v>
+        <v>565486.618597972</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.431629265471467e-06</v>
+        <v>2.637680336911711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.84201388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>407264.849401693</v>
+        <v>511517.3693844348</v>
       </c>
     </row>
     <row r="3">
@@ -40793,28 +40793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.2446362541428</v>
+        <v>349.807092733678</v>
       </c>
       <c r="AB3" t="n">
-        <v>388.9160513112428</v>
+        <v>478.6214966779864</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.7984492212032</v>
+        <v>432.9425327845283</v>
       </c>
       <c r="AD3" t="n">
-        <v>284244.6362541428</v>
+        <v>349807.0927336779</v>
       </c>
       <c r="AE3" t="n">
-        <v>388916.0513112427</v>
+        <v>478621.4966779865</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.612382486841562e-06</v>
+        <v>2.970705952788834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>351798.4492212032</v>
+        <v>432942.5327845283</v>
       </c>
     </row>
     <row r="4">
@@ -40899,28 +40899,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>262.4039070133898</v>
+        <v>328.0516148389456</v>
       </c>
       <c r="AB4" t="n">
-        <v>359.032602019074</v>
+        <v>448.854692038467</v>
       </c>
       <c r="AC4" t="n">
-        <v>324.7670343877946</v>
+        <v>406.0166302018318</v>
       </c>
       <c r="AD4" t="n">
-        <v>262403.9070133898</v>
+        <v>328051.6148389456</v>
       </c>
       <c r="AE4" t="n">
-        <v>359032.602019074</v>
+        <v>448854.692038467</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.67558602001506e-06</v>
+        <v>3.087154198641214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.53298611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>324767.0343877946</v>
+        <v>406016.6302018319</v>
       </c>
     </row>
     <row r="5">
@@ -41005,28 +41005,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>253.1005319597382</v>
+        <v>318.5776475847049</v>
       </c>
       <c r="AB5" t="n">
-        <v>346.3033138345642</v>
+        <v>435.8919920792781</v>
       </c>
       <c r="AC5" t="n">
-        <v>313.2526116020503</v>
+        <v>394.2910721334842</v>
       </c>
       <c r="AD5" t="n">
-        <v>253100.5319597382</v>
+        <v>318577.6475847049</v>
       </c>
       <c r="AE5" t="n">
-        <v>346303.3138345642</v>
+        <v>435891.9920792781</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.706573779561884e-06</v>
+        <v>3.144247055020264e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.28993055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>313252.6116020503</v>
+        <v>394291.0721334842</v>
       </c>
     </row>
     <row r="6">
@@ -41111,28 +41111,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>248.2089034015056</v>
+        <v>304.4784567605361</v>
       </c>
       <c r="AB6" t="n">
-        <v>339.6103718377723</v>
+        <v>416.6008571812506</v>
       </c>
       <c r="AC6" t="n">
-        <v>307.1984345958269</v>
+        <v>376.8410560748466</v>
       </c>
       <c r="AD6" t="n">
-        <v>248208.9034015056</v>
+        <v>304478.4567605361</v>
       </c>
       <c r="AE6" t="n">
-        <v>339610.3718377723</v>
+        <v>416600.8571812506</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.724340791780974e-06</v>
+        <v>3.176981576384306e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.15104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>307198.434595827</v>
+        <v>376841.0560748465</v>
       </c>
     </row>
     <row r="7">
@@ -41217,28 +41217,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>246.9335550855496</v>
+        <v>303.2031084445801</v>
       </c>
       <c r="AB7" t="n">
-        <v>337.8653840074854</v>
+        <v>414.8558693509627</v>
       </c>
       <c r="AC7" t="n">
-        <v>305.6199859549563</v>
+        <v>375.2626074339757</v>
       </c>
       <c r="AD7" t="n">
-        <v>246933.5550855496</v>
+        <v>303203.1084445801</v>
       </c>
       <c r="AE7" t="n">
-        <v>337865.3840074854</v>
+        <v>414855.8693509627</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.727240995246149e-06</v>
+        <v>3.182325005606966e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.13368055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>305619.9859549563</v>
+        <v>375262.6074339757</v>
       </c>
     </row>
   </sheetData>
@@ -41514,28 +41514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.4670961869825</v>
+        <v>483.1772996227526</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.7779689488463</v>
+        <v>661.104497621883</v>
       </c>
       <c r="AC2" t="n">
-        <v>501.8307382281373</v>
+        <v>598.0096122348396</v>
       </c>
       <c r="AD2" t="n">
-        <v>405467.0961869825</v>
+        <v>483177.2996227526</v>
       </c>
       <c r="AE2" t="n">
-        <v>554777.9689488462</v>
+        <v>661104.4976218829</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.274912193946941e-06</v>
+        <v>2.277537593586412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.12673611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>501830.7382281373</v>
+        <v>598009.6122348396</v>
       </c>
     </row>
     <row r="3">
@@ -41620,28 +41620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>324.5178186128443</v>
+        <v>402.1425916854916</v>
       </c>
       <c r="AB3" t="n">
-        <v>444.0195961418286</v>
+        <v>550.2292352231192</v>
       </c>
       <c r="AC3" t="n">
-        <v>401.6429890714689</v>
+        <v>497.7161292650057</v>
       </c>
       <c r="AD3" t="n">
-        <v>324517.8186128443</v>
+        <v>402142.5916854916</v>
       </c>
       <c r="AE3" t="n">
-        <v>444019.5961418286</v>
+        <v>550229.2352231191</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.482898895463353e-06</v>
+        <v>2.649090657333624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>401642.9890714689</v>
+        <v>497716.1292650057</v>
       </c>
     </row>
     <row r="4">
@@ -41726,28 +41726,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.421194462732</v>
+        <v>376.3322928030281</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.9954848467063</v>
+        <v>514.9144456221092</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.7208280473186</v>
+        <v>465.7717336188976</v>
       </c>
       <c r="AD4" t="n">
-        <v>308421.1944627321</v>
+        <v>376332.2928030281</v>
       </c>
       <c r="AE4" t="n">
-        <v>421995.4848467063</v>
+        <v>514914.4456221091</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.557636255188228e-06</v>
+        <v>2.782603496278105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.01909722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>381720.8280473186</v>
+        <v>465771.7336188976</v>
       </c>
     </row>
     <row r="5">
@@ -41832,28 +41832,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>288.6920244464193</v>
+        <v>356.6883741327359</v>
       </c>
       <c r="AB5" t="n">
-        <v>395.0011640408351</v>
+        <v>488.0367694688873</v>
       </c>
       <c r="AC5" t="n">
-        <v>357.3028073323927</v>
+        <v>441.4592251546838</v>
       </c>
       <c r="AD5" t="n">
-        <v>288692.0244464193</v>
+        <v>356688.3741327359</v>
       </c>
       <c r="AE5" t="n">
-        <v>395001.1640408351</v>
+        <v>488036.7694688872</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.599117879619839e-06</v>
+        <v>2.856707391067552e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.65451388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>357302.8073323927</v>
+        <v>441459.2251546838</v>
       </c>
     </row>
     <row r="6">
@@ -41938,28 +41938,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>281.8658295110486</v>
+        <v>349.691586996773</v>
       </c>
       <c r="AB6" t="n">
-        <v>385.6612629797945</v>
+        <v>478.4634566329997</v>
       </c>
       <c r="AC6" t="n">
-        <v>348.8542933199843</v>
+        <v>432.7995758596244</v>
       </c>
       <c r="AD6" t="n">
-        <v>281865.8295110486</v>
+        <v>349691.586996773</v>
       </c>
       <c r="AE6" t="n">
-        <v>385661.2629797945</v>
+        <v>478463.4566329997</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.621179362110151e-06</v>
+        <v>2.896118619527434e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.47222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>348854.2933199843</v>
+        <v>432799.5758596244</v>
       </c>
     </row>
     <row r="7">
@@ -42044,28 +42044,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>275.6014016851903</v>
+        <v>343.4271591709147</v>
       </c>
       <c r="AB7" t="n">
-        <v>377.0899964614045</v>
+        <v>469.8921901146097</v>
       </c>
       <c r="AC7" t="n">
-        <v>341.1010564482613</v>
+        <v>425.0463389879013</v>
       </c>
       <c r="AD7" t="n">
-        <v>275601.4016851903</v>
+        <v>343427.1591709147</v>
       </c>
       <c r="AE7" t="n">
-        <v>377089.9964614045</v>
+        <v>469892.1901146097</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.637706607259677e-06</v>
+        <v>2.925643336857129e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>341101.0564482613</v>
+        <v>425046.3389879013</v>
       </c>
     </row>
     <row r="8">
@@ -42150,28 +42150,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>271.8098186902267</v>
+        <v>339.6355761759511</v>
       </c>
       <c r="AB8" t="n">
-        <v>371.9021853348592</v>
+        <v>464.7043789880644</v>
       </c>
       <c r="AC8" t="n">
-        <v>336.4083627344949</v>
+        <v>420.3536452741349</v>
       </c>
       <c r="AD8" t="n">
-        <v>271809.8186902268</v>
+        <v>339635.5761759512</v>
       </c>
       <c r="AE8" t="n">
-        <v>371902.1853348592</v>
+        <v>464704.3789880644</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.646485920132104e-06</v>
+        <v>2.941326938604563e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.26388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>336408.3627344948</v>
+        <v>420353.6452741349</v>
       </c>
     </row>
     <row r="9">
@@ -42256,28 +42256,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>268.5696141203862</v>
+        <v>326.8522890743515</v>
       </c>
       <c r="AB9" t="n">
-        <v>367.4687944946665</v>
+        <v>447.213721616831</v>
       </c>
       <c r="AC9" t="n">
-        <v>332.398088493787</v>
+        <v>404.5322716941203</v>
       </c>
       <c r="AD9" t="n">
-        <v>268569.6141203862</v>
+        <v>326852.2890743515</v>
       </c>
       <c r="AE9" t="n">
-        <v>367468.7944946665</v>
+        <v>447213.721616831</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.655391011125913e-06</v>
+        <v>2.957235233786773e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.19444444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>332398.088493787</v>
+        <v>404532.2716941203</v>
       </c>
     </row>
     <row r="10">
@@ -42362,28 +42362,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>268.9867133842019</v>
+        <v>327.2693883381672</v>
       </c>
       <c r="AB10" t="n">
-        <v>368.0394881085399</v>
+        <v>447.7844152307044</v>
       </c>
       <c r="AC10" t="n">
-        <v>332.9143159101258</v>
+        <v>405.0484991104591</v>
       </c>
       <c r="AD10" t="n">
-        <v>268986.7133842019</v>
+        <v>327269.3883381672</v>
       </c>
       <c r="AE10" t="n">
-        <v>368039.4881085399</v>
+        <v>447784.4152307044</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.655240077380255e-06</v>
+        <v>2.95696560166504e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.19444444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>332914.3159101258</v>
+        <v>405048.4991104591</v>
       </c>
     </row>
   </sheetData>
